--- a/public/preprocessing/@MCAOps.xlsx
+++ b/public/preprocessing/@MCAOps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16246</v>
+        <v>27013</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gerakan pemuda islam berencana untuk membuat laporan polisi terkait dugaan pelanggaran protokol kesehatan yang dila</t>
+          <t>safenet penindakan di slawi menunjukkan kekhawatiran akan keberadaan virtual police benar adanya tindakan timvi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['gerakan', 'pemuda', 'islam', 'berencana', 'untuk', 'membuat', 'laporan', 'polisi', 'terkait', 'dugaan', 'pelanggaran', 'protokol', 'kesehatan', 'yang', 'dila']</t>
+          <t>['safenet', 'penindakan', 'di', 'slawi', 'menunjukkan', 'kekhawatiran', 'akan', 'keberadaan', 'virtual', 'police', 'benar', 'adanya', 'tindakan', 'timvi']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['safenet', 'penindakan', 'di', 'slawi', 'menunjukkan', 'kekhawatiran', 'akan', 'keberadaan', 'virtual', 'police', 'benar', 'adanya', 'tindakan', 'timvi']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['gerakan', 'pemuda', 'islam', 'berencana', 'laporan', 'polisi', 'terkait', 'dugaan', 'pelanggaran', 'protokol', 'kesehatan', 'dila']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['gera', 'pemuda', 'islam', 'rencana', 'lapor', 'polisi', 'kait', 'duga', 'langgar', 'protokol', 'sehat', 'dila']</t>
+          <t>['safenet', 'penindakan', 'slawi', 'kekhawatiran', 'keberadaan', 'virtual', 'police', 'tindakan', 'timvi']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['safenet', 'tindak', 'slawi', 'khawatir', 'ada', 'virtual', 'police', 'tindak', 'timvi']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16247</v>
+        <v>27014</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>antusias warga korban terdampak banjir di bekasi nampak terlihat dan warga sangat berterima kasih atas bantuan yan</t>
+          <t>rt boycott divestment sanctions bds is  palestinianled movement for freedom justice and equality upholds the si</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['antusias', 'warga', 'korban', 'terdampak', 'banjir', 'di', 'bekasi', 'nampak', 'terlihat', 'dan', 'warga', 'sangat', 'berterima', 'kasih', 'atas', 'bantuan', 'yan']</t>
+          <t>['rt', 'boycott', 'divestment', 'sanctions', 'bds', 'is', 'palestinianled', 'movement', 'for', 'freedom', 'justice', 'and', 'equality', 'upholds', 'the', 'si']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'boycott', 'divestment', 'sanctions', 'bds', 'is', 'palestinianled', 'movement', 'for', 'freedom', 'justice', 'and', 'equality', 'upholds', 'the', 'sih']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['antusias', 'warga', 'korban', 'terdampak', 'banjir', 'bekasi', 'nampak', 'warga', 'berterima', 'kasih', 'bantuan', 'yan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['antusias', 'warga', 'korban', 'dampak', 'banjir', 'bekas', 'nampak', 'warga', 'terima', 'kasih', 'bantu', 'yan']</t>
+          <t>['boycott', 'divestment', 'sanctions', 'bds', 'is', 'palestinianled', 'movement', 'for', 'freedom', 'justice', 'and', 'equality', 'upholds', 'the']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['boycott', 'divestment', 'sanctions', 'bds', 'is', 'palestinianled', 'movement', 'for', 'freedom', 'justice', 'and', 'equality', 'upholds', 'the']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16248</v>
+        <v>27015</v>
       </c>
       <c r="C4" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt front persaudaraan islam dengan segenap kemampuannya membantu korban terdampak banjir di bangil pasuruan dengan membagikan </t>
+          <t>proses pengerjaan rumah untuk janda kurang mampu di pamekasan madura yang dilakukan dari dana swadaya front persau</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'front', 'persaudaraan', 'islam', 'dengan', 'segenap', 'kemampuannya', 'membantu', 'korban', 'terdampak', 'banjir', 'di', 'bangil', 'pasuruan', 'dengan', 'membagikan']</t>
+          <t>['proses', 'pengerjaan', 'rumah', 'untuk', 'janda', 'kurang', 'mampu', 'di', 'pamekasan', 'madura', 'yang', 'dilakukan', 'dari', 'dana', 'swadaya', 'front', 'persau']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['proses', 'pengerjaan', 'rumah', 'untuk', 'janda', 'kurang', 'mampu', 'di', 'pamekasan', 'madura', 'yang', 'dilakukan', 'dari', 'dana', 'swadaya', 'front', 'persau']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['front', 'persaudaraan', 'islam', 'segenap', 'kemampuannya', 'membantu', 'korban', 'terdampak', 'banjir', 'bangil', 'pasuruan', 'membagikan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['front', 'saudara', 'islam', 'segenap', 'mampu', 'bantu', 'korban', 'dampak', 'banjir', 'bangil', 'pasuruan', 'bagi']</t>
+          <t>['proses', 'pengerjaan', 'rumah', 'janda', 'pamekasan', 'madura', 'dana', 'swadaya', 'front', 'persau']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['proses', 'kerja', 'rumah', 'janda', 'pamekasan', 'madura', 'dana', 'swadaya', 'front', 'sau']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16249</v>
+        <v>27016</v>
       </c>
       <c r="C5" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pa menantang kapolri untuk menegakkan hukum seadiladil terkait kerumunan massa yang menyambut kedatangan jokow</t>
+          <t>rt janjinya revisi uu ite demi keadilan realisasinya polisi virtual utk melindungi para penguasa dan keluarganya dari kriti</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['pa', 'menantang', 'kapolri', 'untuk', 'menegakkan', 'hukum', 'seadiladil', 'terkait', 'kerumunan', 'massa', 'yang', 'menyambut', 'kedatangan', 'jokow']</t>
+          <t>['rt', 'janjinya', 'revisi', 'uu', 'ite', 'demi', 'keadilan', 'realisasinya', 'polisi', 'virtual', 'utk', 'melindungi', 'para', 'penguasa', 'dan', 'keluarganya', 'dari', 'kriti']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'janjinya', 'revisi', 'undang, undang', 'informasi, transaksi, elektronik', 'demi', 'keadilan', 'realisasinya', 'polisi', 'virtual', 'untuk', 'melindungi', 'para', 'penguasa', 'dan', 'keluarganya', 'dari', 'kriti']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['pa', 'menantang', 'kapolri', 'menegakkan', 'hukum', 'seadiladil', 'terkait', 'kerumunan', 'massa', 'menyambut', 'kedatangan', 'jokow']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['pa', 'tantang', 'kapolri', 'tegak', 'hukum', 'seadiladil', 'kait', 'kerumun', 'massa', 'sambut', 'datang', 'jokow']</t>
+          <t>['janjinya', 'revisi', 'undang, undang', 'informasi, transaksi, elektronik', 'keadilan', 'realisasinya', 'polisi', 'virtual', 'melindungi', 'penguasa', 'keluarganya', 'kriti']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['janji', 'revisi', 'undang undang', 'informasi transaksi elektronik', 'adil', 'realisasi', 'polisi', 'virtual', 'lindung', 'kuasa', 'keluarga', 'kriti']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16250</v>
+        <v>27017</v>
       </c>
       <c r="C6" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pa jokowi tak bisa memberikan contoh yang baik kepada masyarakat jokowi tengah memperlihatkan hukum bekerja</t>
+          <t>meski status perkaranya telah naik ke tahap penyidikan kasus unlawful killing atau pembunuhan di luar proses hukum</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pa', 'jokowi', 'tak', 'bisa', 'memberikan', 'contoh', 'yang', 'baik', 'kepada', 'masyarakat', 'jokowi', 'tengah', 'memperlihatkan', 'hukum', 'bekerja']</t>
+          <t>['meski', 'status', 'perkaranya', 'telah', 'naik', 'ke', 'tahap', 'penyidikan', 'kasus', 'unlawful', 'killing', 'atau', 'pembunuhan', 'di', 'luar', 'proses', 'hukum']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['meski', 'status', 'perkaranya', 'telah', 'naik', 'ke', 'tahap', 'penyidikan', 'kasus', 'unlawful', 'killing', 'atau', 'pembunuhan', 'di', 'luar', 'proses', 'hukum']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pa', 'jokowi', 'contoh', 'masyarakat', 'jokowi', 'hukum']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['pa', 'jokowi', 'contoh', 'masyarakat', 'jokowi', 'hukum']</t>
+          <t>['status', 'perkaranya', 'tahap', 'penyidikan', 'unlawful', 'killing', 'pembunuhan', 'proses', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['status', 'perkara', 'tahap', 'sidi', 'unlawful', 'killing', 'bunuh', 'proses', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -655,30 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16251</v>
+        <v>27018</v>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>320</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tp akan segera memberikan buku putih pada jokowi buku tersebut berisi berbagai bukti penemuan terkait penembakan</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tp', 'akan', 'segera', 'memberikan', 'buku', 'putih', 'pada', 'jokowi', 'buku', 'tersebut', 'berisi', 'berbagai', 'bukti', 'penemuan', 'terkait', 'penembakan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tetapi', 'akan', 'segera', 'memberikan', 'buku', 'putih', 'pada', 'jokowi', 'buku', 'tersebut', 'berisi', 'berbagai', 'bukti', 'penemuan', 'terkait', 'penembakan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buku', 'putih', 'jokowi', 'buku', 'berisi', 'bukti', 'penemuan', 'terkait', 'penembakan']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['buku', 'putih', 'jokowi', 'buku', 'isi', 'bukti', 'temu', 'kait', 'tembak']</t>
         </is>
       </c>
     </row>
@@ -687,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16252</v>
+        <v>27019</v>
       </c>
       <c r="C8" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>front persaudaraan islam dengan segenap kemampuannya membantu korban terdampak banjir di bangil pasuruan dengan</t>
+          <t>rt sri lanka akan melarang pemakaian burqa dan menutup lebih dari sekolah islam tindakan diskriminasi terbaru yang akan ber</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['front', 'persaudaraan', 'islam', 'dengan', 'segenap', 'kemampuannya', 'membantu', 'korban', 'terdampak', 'banjir', 'di', 'bangil', 'pasuruan', 'dengan']</t>
+          <t>['rt', 'sri', 'lanka', 'akan', 'melarang', 'pemakaian', 'burqa', 'dan', 'menutup', 'lebih', 'dari', 'sekolah', 'islam', 'tindakan', 'diskriminasi', 'terbaru', 'yang', 'akan', 'ber']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'sri', 'lanka', 'akan', 'melarang', 'pemakaian', 'burka', 'dan', 'menutup', 'lebih', 'dari', 'sekolah', 'islam', 'tindakan', 'diskriminasi', 'terbaru', 'yang', 'akan', 'ber']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['front', 'persaudaraan', 'islam', 'segenap', 'kemampuannya', 'membantu', 'korban', 'terdampak', 'banjir', 'bangil', 'pasuruan']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['front', 'saudara', 'islam', 'segenap', 'mampu', 'bantu', 'korban', 'dampak', 'banjir', 'bangil', 'pasuruan']</t>
+          <t>['sri', 'lanka', 'melarang', 'pemakaian', 'burka', 'menutup', 'sekolah', 'islam', 'tindakan', 'diskriminasi', 'terbaru', 'ber']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sri', 'lanka', 'larang', 'pakai', 'burka', 'tutup', 'sekolah', 'islam', 'tindak', 'diskriminasi', 'baru', 'ber']</t>
         </is>
       </c>
     </row>
@@ -723,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16253</v>
+        <v>27020</v>
       </c>
       <c r="C9" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt palestina memang jauh di sana tapi persaudaraan kita tidak tersekat dengan jarak berbagai aksi terus diberikan untuk</t>
+          <t>rt himbauan mui kepada pemerintah indonesia dan srilanka yang akan menutup sekolah islam</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'palestina', 'memang', 'jauh', 'di', 'sana', 'tapi', 'persaudaraan', 'kita', 'tidak', 'tersekat', 'dengan', 'jarak', 'berbagai', 'aksi', 'terus', 'diberikan', 'untuk']</t>
+          <t>['rt', 'himbauan', 'mui', 'kepada', 'pemerintah', 'indonesia', 'dan', 'srilanka', 'yang', 'akan', 'menutup', 'sekolah', 'islam']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'himbauan', 'majelis, ulama, indonesia', 'kepada', 'pemerintah', 'indonesia', 'dan', 'srilanka', 'yang', 'akan', 'menutup', 'sekolah', 'islam']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['palestina', 'persaudaraan', 'tersekat', 'jarak', 'aksi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['palestina', 'saudara', 'sekat', 'jarak', 'aksi']</t>
+          <t>['himbauan', 'majelis, ulama, indonesia', 'pemerintah', 'indonesia', 'srilanka', 'menutup', 'sekolah', 'islam']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['himbauan', 'majelis ulama indonesia', 'perintah', 'indonesia', 'srilanka', 'tutup', 'sekolah', 'islam']</t>
         </is>
       </c>
     </row>
@@ -759,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16254</v>
+        <v>27021</v>
       </c>
       <c r="C10" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt jika tidak ada sanksi terhadap pelanggaran protokol kesehatan sebagaimana ditimpakan kepada pelanggar yg sama bahkan be</t>
+          <t>rt id sri lanka tutup sekolah islam mui ini jelas tindakan kekerasan dan teroristik</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'jika', 'tidak', 'ada', 'sanksi', 'terhadap', 'pelanggaran', 'protokol', 'kesehatan', 'sebagaimana', 'ditimpakan', 'kepada', 'pelanggar', 'yg', 'sama', 'bahkan', 'be']</t>
+          <t>['rt', 'id', 'sri', 'lanka', 'tutup', 'sekolah', 'islam', 'mui', 'ini', 'jelas', 'tindakan', 'kekerasan', 'dan', 'teroristik']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'id', 'sri', 'lanka', 'tutup', 'sekolah', 'islam', 'majelis, ulama, indonesia', 'ini', 'jelas', 'tindakan', 'kekerasan', 'dan', 'teroristik']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['sanksi', 'pelanggaran', 'protokol', 'kesehatan', 'ditimpakan', 'pelanggar', 'be']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['sanksi', 'langgar', 'protokol', 'sehat', 'timpa', 'langgar', 'be']</t>
+          <t>['id', 'sri', 'lanka', 'tutup', 'sekolah', 'islam', 'majelis, ulama, indonesia', 'tindakan', 'kekerasan', 'teroristik']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['id', 'sri', 'lanka', 'tutup', 'sekolah', 'islam', 'majelis ulama indonesia', 'tindak', 'keras', 'teroristik']</t>
         </is>
       </c>
     </row>
@@ -795,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16255</v>
+        <v>27022</v>
       </c>
       <c r="C11" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt id presiden jokowi langgar konstitusi lagi biasalahh ht</t>
+          <t xml:space="preserve">pengamat ada kekuatan besar di belakang menteri pendidikan dan kebudayaan nadiem makarim ketika menetapkan peta </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'presiden', 'jokowi', 'langgar', 'konstitusi', 'lagi', 'biasalahh', 'ht']</t>
+          <t>['pengamat', 'ada', 'kekuatan', 'besar', 'di', 'belakang', 'menteri', 'pendidikan', 'dan', 'kebudayaan', 'nadiem', 'makarim', 'ketika', 'menetapkan', 'peta']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['pengamat', 'ada', 'kekuatan', 'besar', 'di', 'belakang', 'menteri', 'pendidikan', 'dan', 'kebudayaan', 'nadiem', 'makarim', 'ketika', 'menetapkan', 'peta']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['id', 'presiden', 'jokowi', 'langgar', 'konstitusi', 'biasalahh', 'ht']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['id', 'presiden', 'jokowi', 'langgar', 'konstitusi', 'biasalahh', 'ht']</t>
+          <t>['pengamat', 'kekuatan', 'menteri', 'pendidikan', 'kebudayaan', 'nadiem', 'makarim', 'menetapkan', 'peta']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['amat', 'kuat', 'menteri', 'didik', 'budaya', 'nadiem', 'makarim', 'tetap', 'peta']</t>
         </is>
       </c>
     </row>
@@ -831,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16256</v>
+        <v>27023</v>
       </c>
       <c r="C12" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt kantornya banjir ganjar pranowo aneh pasti ada yang tersumbat</t>
+          <t>rt  rise in antichina sentiment in myanmar over public perceptions it is supporting the junta raises questions over billions</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'kantornya', 'banjir', 'ganjar', 'pranowo', 'aneh', 'pasti', 'ada', 'yang', 'tersumbat']</t>
+          <t>['rt', 'rise', 'in', 'antichina', 'sentiment', 'in', 'myanmar', 'over', 'public', 'perceptions', 'it', 'is', 'supporting', 'the', 'junta', 'raises', 'questions', 'over', 'billions']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'rise', 'in', 'antichina', 'sentiment', 'in', 'myanmar', 'over', 'publik', 'perceptions', 'it', 'is', 'supporting', 'the', 'junta', 'raises', 'questions', 'over', 'billions']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kantornya', 'banjir', 'ganjar', 'pranowo', 'aneh', 'tersumbat']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kantor', 'banjir', 'ganjar', 'pranowo', 'aneh', 'sumbat']</t>
+          <t>['rise', 'in', 'antichina', 'sentiment', 'in', 'myanmar', 'over', 'publik', 'perceptions', 'it', 'is', 'supporting', 'the', 'junta', 'raises', 'questions', 'over', 'billions']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['rise', 'in', 'antichina', 'sentiment', 'in', 'myanmar', 'over', 'publik', 'perceptions', 'it', 'is', 'supporting', 'the', 'junta', 'raises', 'questions', 'over', 'billions']</t>
         </is>
       </c>
     </row>
@@ -867,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16257</v>
+        <v>27024</v>
       </c>
       <c r="C13" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt knftraa situasi hujan lebat dan banjir yang melanda kota semarang tepatnya di jalan pemuda pada hari selasa tanggal</t>
+          <t>rt mui tekankan pentingnya agama dalam pendidikan nasional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'knftraa', 'situasi', 'hujan', 'lebat', 'dan', 'banjir', 'yang', 'melanda', 'kota', 'semarang', 'tepatnya', 'di', 'jalan', 'pemuda', 'pada', 'hari', 'selasa', 'tanggal']</t>
+          <t>['rt', 'mui', 'tekankan', 'pentingnya', 'agama', 'dalam', 'pendidikan', 'nasional']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'majelis, ulama, indonesia', 'tekankan', 'pentingnya', 'agama', 'dalam', 'pendidikan', 'nasional']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['knftraa', 'situasi', 'hujan', 'lebat', 'banjir', 'melanda', 'kota', 'semarang', 'tepatnya', 'jalan', 'pemuda', 'selasa', 'tanggal']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['knftraa', 'situasi', 'hujan', 'lebat', 'banjir', 'landa', 'kota', 'semarang', 'tepat', 'jalan', 'pemuda', 'selasa', 'tanggal']</t>
+          <t>['majelis, ulama, indonesia', 'tekankan', 'agama', 'pendidikan', 'nasional']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['majelis ulama indonesia', 'tekan', 'agama', 'didik', 'nasional']</t>
         </is>
       </c>
     </row>
@@ -903,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16258</v>
+        <v>27025</v>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt ali prokes dilanggar tidak ada social distance banyak yang tidak pakai masker membuat kerumunan pie hudhi wani </t>
+          <t>habib rizieq memperingati isra miraj di rutan bareskrim bak perayaan laiaknya di pondok pesantren besutannya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'ali', 'prokes', 'dilanggar', 'tidak', 'ada', 'social', 'distance', 'banyak', 'yang', 'tidak', 'pakai', 'masker', 'membuat', 'kerumunan', 'pie', 'hudhi', 'wani']</t>
+          <t>['habib', 'rizieq', 'memperingati', 'isra', 'miraj', 'di', 'rutan', 'bareskrim', 'bak', 'perayaan', 'laiaknya', 'di', 'pondok', 'pesantren', 'besutannya']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['habib', 'rizieq', 'memperingati', 'isra', 'miraj', 'di', 'rumah, tahanan', 'badan, reserse, kriminal', 'bak', 'perayaan', 'laiaknya', 'di', 'pondok', 'pesantren', 'besutannya']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['ali', 'prokes', 'dilanggar', 'social', 'distance', 'pakai', 'masker', 'kerumunan', 'pie', 'hudhi', 'wani']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['ali', 'prokes', 'langgar', 'social', 'distance', 'pakai', 'masker', 'kerumun', 'pie', 'hudhi', 'wani']</t>
+          <t>['habib', 'rizieq', 'memperingati', 'isra', 'miraj', 'rumah, tahanan', 'badan, reserse, kriminal', 'bak', 'perayaan', 'laiaknya', 'pondok', 'pesantren', 'besutannya']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'ingat', 'isra', 'miraj', 'rumah tahan', 'badan reserse kriminal', 'bak', 'raya', 'laiaknya', 'pondok', 'pesantren', 'besut']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16259</v>
+        <v>27026</v>
       </c>
       <c r="C15" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt alasannya spontanitas dan ada juga pelemparan paket kepada kerumunan massa oleh di video tampak tak ada prokes</t>
+          <t>rt suasana rutan bareskrim bahkan bak pesantren dengan kegiatan keagamaan yang intensif</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'alasannya', 'spontanitas', 'dan', 'ada', 'juga', 'pelemparan', 'paket', 'kepada', 'kerumunan', 'massa', 'oleh', 'di', 'video', 'tampak', 'tak', 'ada', 'prokes']</t>
+          <t>['rt', 'suasana', 'rutan', 'bareskrim', 'bahkan', 'bak', 'pesantren', 'dengan', 'kegiatan', 'keagamaan', 'yang', 'intensif']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'suasana', 'rumah, tahanan', 'badan, reserse, kriminal', 'bahkan', 'bak', 'pesantren', 'dengan', 'kegiatan', 'keagamaan', 'yang', 'intensif']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['alasannya', 'spontanitas', 'pelemparan', 'paket', 'kerumunan', 'massa', 'video', 'prokes']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['alas', 'spontanitas', 'lempar', 'paket', 'kerumun', 'massa', 'video', 'prokes']</t>
+          <t>['suasana', 'rumah, tahanan', 'badan, reserse, kriminal', 'bak', 'pesantren', 'kegiatan', 'keagamaan', 'intensif']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['suasana', 'rumah tahan', 'badan reserse kriminal', 'bak', 'pesantren', 'giat', 'agama', 'intensif']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16260</v>
+        <v>27027</v>
       </c>
       <c r="C16" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt banyuu ki lhoo emang kok lokasi simpang lima semarang</t>
+          <t>rt agama dalam bernegara oleh usaha menepikan menyamarkan mengaburkan menegasikan dan menjauhkan agama sert</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'banyuu', 'ki', 'lhoo', 'emang', 'kok', 'lokasi', 'simpang', 'lima', 'semarang']</t>
+          <t>['rt', 'agama', 'dalam', 'bernegara', 'oleh', 'usaha', 'menepikan', 'menyamarkan', 'mengaburkan', 'menegasikan', 'dan', 'menjauhkan', 'agama', 'sert']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'agama', 'dalam', 'bernegara', 'oleh', 'usaha', 'menepikan', 'menyamarkan', 'mengaburkan', 'menegasikan', 'dan', 'menjauhkan', 'agama', 'sert']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['banyuu', 'ki', 'lhoo', 'emang', 'lokasi', 'simpang', 'semarang']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['banyuu', 'ki', 'lhoo', 'emang', 'lokasi', 'simpang', 'semarang']</t>
+          <t>['agama', 'bernegara', 'usaha', 'menepikan', 'menyamarkan', 'mengaburkan', 'menegasikan', 'menjauhkan', 'agama', 'sert']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['agama', 'negara', 'usaha', 'tepi', 'samar', 'abur', 'negasi', 'jauh', 'agama', 'sert']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16261</v>
+        <v>27028</v>
       </c>
       <c r="C17" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt sejarah lokasi km yang kini habis tiada bersisa</t>
+          <t>tim kemanusiaan dpw front persaudaraan islam fpi kota makassar langsung turun ke lokasi bencana dengan membawa pe</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'sejarah', 'lokasi', 'km', 'yang', 'kini', 'habis', 'tiada', 'bersisa']</t>
+          <t>['tim', 'kemanusiaan', 'dpw', 'front', 'persaudaraan', 'islam', 'fpi', 'kota', 'makassar', 'langsung', 'turun', 'ke', 'lokasi', 'bencana', 'dengan', 'membawa', 'pe']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['tim', 'kemanusiaan', 'dpw', 'front', 'persaudaraan', 'islam', 'front, pembela, islam', 'kota', 'makassar', 'langsung', 'turun', 'ke', 'lokasi', 'bencana', 'dengan', 'membawa', 'pe']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['sejarah', 'lokasi', 'km', 'habis', 'tiada', 'bersisa']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['sejarah', 'lokasi', 'km', 'habis', 'tiada', 'sisa']</t>
+          <t>['tim', 'kemanusiaan', 'dpw', 'front', 'persaudaraan', 'islam', 'front, pembela, islam', 'kota', 'makassar', 'langsung', 'turun', 'lokasi', 'bencana', 'membawa', 'pe']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['tim', 'manusia', 'dpw', 'front', 'saudara', 'islam', 'front bela islam', 'kota', 'makassar', 'langsung', 'turun', 'lokasi', 'bencana', 'bawa', 'pe']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16262</v>
+        <v>27029</v>
       </c>
       <c r="C18" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt didu simpang lima semarang</t>
+          <t>rt pebisnis dukung limbah batu bara tak masuk kategori berbahaya</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'didu', 'simpang', 'lima', 'semarang']</t>
+          <t>['rt', 'pebisnis', 'dukung', 'limbah', 'batu', 'bara', 'tak', 'masuk', 'kategori', 'berbahaya']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'pebisnis', 'dukung', 'limbah', 'batu', 'bara', 'tak', 'masuk', 'kategori', 'berbahaya']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['didu', 'simpang', 'semarang']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['didu', 'simpang', 'semarang']</t>
+          <t>['pebisnis', 'dukung', 'limbah', 'batu', 'bara', 'masuk', 'kategori', 'berbahaya']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['bisnis', 'dukung', 'limbah', 'batu', 'bara', 'masuk', 'kategori', 'bahaya']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16263</v>
+        <v>27030</v>
       </c>
       <c r="C19" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt parkiran motor kantor gubernuran jl pahlawan semarang hujan deras masih mengguyur kota semarang sejak jam sore</t>
+          <t>tp mengajak masyarakat indonesia untuk ikut dalam ageda doa dan tahlil nasional untuk mediang laskar fpi yang me</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'parkiran', 'motor', 'kantor', 'gubernuran', 'jl', 'pahlawan', 'semarang', 'hujan', 'deras', 'masih', 'mengguyur', 'kota', 'semarang', 'sejak', 'jam', 'sore']</t>
+          <t>['tp', 'mengajak', 'masyarakat', 'indonesia', 'untuk', 'ikut', 'dalam', 'ageda', 'doa', 'dan', 'tahlil', 'nasional', 'untuk', 'mediang', 'laskar', 'fpi', 'yang', 'me']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tetapi', 'mengajak', 'masyarakat', 'indonesia', 'untuk', 'ikut', 'dalam', 'ageda', 'doa', 'dan', 'tahlil', 'nasional', 'untuk', 'mediang', 'laskar', 'front, pembela, islam', 'yang', 'me']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['parkiran', 'motor', 'kantor', 'gubernuran', 'jl', 'pahlawan', 'semarang', 'hujan', 'deras', 'mengguyur', 'kota', 'semarang', 'jam', 'sore']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['parkir', 'motor', 'kantor', 'gubernur', 'jl', 'pahlawan', 'semarang', 'hujan', 'deras', 'guyur', 'kota', 'semarang', 'jam', 'sore']</t>
+          <t>['mengajak', 'masyarakat', 'indonesia', 'ageda', 'doa', 'tahlil', 'nasional', 'mediang', 'laskar', 'front, pembela, islam', 'me']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['ajak', 'masyarakat', 'indonesia', 'ageda', 'doa', 'tahlil', 'nasional', 'mediang', 'laskar', 'front bela islam', 'me']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16264</v>
+        <v>27031</v>
       </c>
       <c r="C20" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt kami rakyat minang akan membentuk dim daerah istimewa minang menentang skb mentri ayo rakyat minang kita berjuang</t>
+          <t xml:space="preserve">rt ijin dipermudah royalti dihapus bebas buang limbah buruh dijual murah dan warga kritis bisa dikenai pasal uu ite </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'kami', 'rakyat', 'minang', 'akan', 'membentuk', 'dim', 'daerah', 'istimewa', 'minang', 'menentang', 'skb', 'mentri', 'ayo', 'rakyat', 'minang', 'kita', 'berjuang']</t>
+          <t>['rt', 'ijin', 'dipermudah', 'royalti', 'dihapus', 'bebas', 'buang', 'limbah', 'buruh', 'dijual', 'murah', 'dan', 'warga', 'kritis', 'bisa', 'dikenai', 'pasal', 'uu', 'ite']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'izin', 'dipermudah', 'royalti', 'dihapus', 'bebas', 'buang', 'limbah', 'buruh', 'dijual', 'murah', 'dan', 'warga', 'kritis', 'bisa', 'dikenai', 'pasal', 'undang, undang', 'informasi, transaksi, elektronik']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['rakyat', 'minang', 'membentuk', 'dim', 'daerah', 'istimewa', 'minang', 'menentang', 'skb', 'mentri', 'ayo', 'rakyat', 'minang', 'berjuang']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['rakyat', 'mang', 'bentuk', 'dim', 'daerah', 'istimewa', 'mang', 'tentang', 'skb', 'tri', 'ayo', 'rakyat', 'mang', 'juang']</t>
+          <t>['izin', 'dipermudah', 'royalti', 'dihapus', 'bebas', 'buang', 'limbah', 'buruh', 'dijual', 'murah', 'warga', 'kritis', 'dikenai', 'pasal', 'undang, undang', 'informasi, transaksi, elektronik']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['izin', 'mudah', 'royalti', 'hapus', 'bebas', 'buang', 'limbah', 'buruh', 'jual', 'murah', 'warga', 'kritis', 'kena', 'pasal', 'undang undang', 'informasi transaksi elektronik']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16265</v>
+        <v>27032</v>
       </c>
       <c r="C21" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt canadas parliament declares chinas treatment of uighurs is genocide</t>
+          <t>menduga ada eksekutor lain tp harus diperhatikan bahwa pada sore hari desember di kilometer ada orang be</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'canadas', 'parliament', 'declares', 'chinas', 'treatment', 'of', 'uighurs', 'is', 'genocide']</t>
+          <t>['menduga', 'ada', 'eksekutor', 'lain', 'tp', 'harus', 'diperhatikan', 'bahwa', 'pada', 'sore', 'hari', 'desember', 'di', 'kilometer', 'ada', 'orang', 'be']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['menduga', 'ada', 'eksekutor', 'lain', 'tetapi', 'harus', 'diperhatikan', 'bahwa', 'pada', 'sore', 'hari', 'desember', 'di', 'kilometer', 'ada', 'orang', 'be']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['canadas', 'parliament', 'declares', 'chinas', 'treatment', 'of', 'uighurs', 'is', 'genocide']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['canadas', 'parliament', 'declares', 'chinas', 'treatment', 'of', 'uighurs', 'is', 'genocide']</t>
+          <t>['menduga', 'eksekutor', 'diperhatikan', 'sore', 'desember', 'kilometer', 'orang', 'be']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['duga', 'eksekutor', 'perhati', 'sore', 'desember', 'kilometer', 'orang', 'be']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16266</v>
+        <v>27033</v>
       </c>
       <c r="C22" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt extremely encouraging that canada has voted to recognise the situation in the uyghur region as genocide the uk cannot sh</t>
+          <t>putin islam merupakan agama yang cinta damai dan bersahabatyang tidak ada sangkut pautnya dengan pemahaman sesat</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'extremely', 'encouraging', 'that', 'canada', 'has', 'voted', 'to', 'recognise', 'the', 'situation', 'in', 'the', 'uyghur', 'region', 'as', 'genocide', 'the', 'uk', 'can', 'not', 'sh']</t>
+          <t>['putin', 'islam', 'merupakan', 'agama', 'yang', 'cinta', 'damai', 'dan', 'bersahabatyang', 'tidak', 'ada', 'sangkut', 'pautnya', 'dengan', 'pemahaman', 'sesat']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['putin', 'islam', 'merupakan', 'agama', 'yang', 'cinta', 'damai', 'dan', 'bersahabatyang', 'tidak', 'ada', 'sangkut', 'pautnya', 'dengan', 'pemahaman', 'sesat']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['extremely', 'encouraging', 'that', 'canada', 'has', 'voted', 'to', 'recognise', 'the', 'situation', 'in', 'the', 'uyghur', 'region', 'as', 'genocide', 'the', 'uk', 'can', 'not', 'sh']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['extremely', 'encouraging', 'that', 'canada', 'has', 'voted', 'to', 'recognise', 'the', 'situation', 'in', 'the', 'uyghur', 'region', 'as', 'genocide', 'the', 'uk', 'can', 'not', 'sh']</t>
+          <t>['putin', 'islam', 'agama', 'cinta', 'damai', 'bersahabatyang', 'sangkut', 'pautnya', 'pemahaman', 'sesat']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['putin', 'islam', 'agama', 'cinta', 'damai', 'bersahabatyang', 'sangkut', 'paut', 'paham', 'sesat']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16267</v>
+        <v>27034</v>
       </c>
       <c r="C23" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt semarang banjir lagi pusat kota simpang lima terendam</t>
+          <t>rt ini pasti karena patung yuri gagarin siapa pun yang melihat twit ini sekali lagi patung tersebut adalah pemberian</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'semarang', 'banjir', 'lagi', 'pusat', 'kota', 'simpang', 'lima', 'terendam']</t>
+          <t>['rt', 'ini', 'pasti', 'karena', 'patung', 'yuri', 'gagarin', 'siapa', 'pun', 'yang', 'melihat', 'twit', 'ini', 'sekali', 'lagi', 'patung', 'tersebut', 'adalah', 'pemberian']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'ini', 'pasti', 'karena', 'patung', 'yuri', 'gagarin', 'siapa', 'pun', 'yang', 'melihat', 'twit', 'ini', 'sekali', 'lagi', 'patung', 'tersebut', 'adalah', 'pemberian']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['semarang', 'banjir', 'pusat', 'kota', 'simpang', 'terendam']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['semarang', 'banjir', 'pusat', 'kota', 'simpang', 'rendam']</t>
+          <t>['patung', 'yuri', 'gagarin', 'twit', 'patung', 'pemberian']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['patung', 'yuri', 'gagarin', 'twit', 'patung', 'beri']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16268</v>
+        <v>27035</v>
       </c>
       <c r="C24" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt fpi tahukah anda pak gara kerumunan bisa dikuntit pengawalnya dibunuh pelakunya di ikat borgol lalu di penjara org</t>
+          <t>rt usul presiden dan juga yang di istana coba berkantor di dekat pltu batubara coba hirup abu batubara apakah itu lim</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'fpi', 'tahukah', 'anda', 'pak', 'gara', 'kerumunan', 'bisa', 'dikuntit', 'pengawalnya', 'dibunuh', 'pelakunya', 'di', 'ikat', 'borgol', 'lalu', 'di', 'penjara', 'org']</t>
+          <t>['rt', 'usul', 'presiden', 'dan', 'juga', 'yang', 'di', 'istana', 'coba', 'berkantor', 'di', 'dekat', 'pltu', 'batubara', 'coba', 'hirup', 'abu', 'batubara', 'apakah', 'itu', 'lim']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'usul', 'presiden', 'dan', 'juga', 'yang', 'di', 'istana', 'coba', 'berkantor', 'di', 'dekat', 'pltu', 'batubara', 'coba', 'hirup', 'abu', 'batubara', 'apakah', 'itu', 'lim']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['fpi', 'tahukah', 'gara', 'kerumunan', 'dikuntit', 'pengawalnya', 'dibunuh', 'pelakunya', 'ikat', 'borgol', 'penjara', 'org']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['fpi', 'tahu', 'gara', 'kerumun', 'kuntit', 'awal', 'bunuh', 'laku', 'ikat', 'borgol', 'penjara', 'org']</t>
+          <t>['usul', 'presiden', 'istana', 'coba', 'berkantor', 'pltu', 'batubara', 'coba', 'hirup', 'abu', 'batubara', 'lim']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['usul', 'presiden', 'istana', 'coba', 'kantor', 'pltu', 'batubara', 'coba', 'hirup', 'abu', 'batubara', 'lim']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16269</v>
+        <v>27036</v>
       </c>
       <c r="C25" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bidang kemanusiaan front persaudaraan islam menyerahkan bantuan untuk pembangunan ponpes dan masjid terdampak longs</t>
+          <t>rt siaran pers presiden jokowi kembali menggadaikan keselamatan warga dengan menghapus faba dari limbah  jatam</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'menyerahkan', 'bantuan', 'untuk', 'pembangunan', 'ponpes', 'dan', 'masjid', 'terdampak', 'longs']</t>
+          <t>['rt', 'siaran', 'pers', 'presiden', 'jokowi', 'kembali', 'menggadaikan', 'keselamatan', 'warga', 'dengan', 'menghapus', 'faba', 'dari', 'limbah', 'jatam']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'siaran', 'pers', 'presiden', 'jokowi', 'kembali', 'menggadaikan', 'keselamatan', 'warga', 'dengan', 'menghapus', 'faba', 'dari', 'limbah', 'jatam']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'menyerahkan', 'bantuan', 'pembangunan', 'ponpes', 'masjid', 'terdampak', 'longs']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bidang', 'manusia', 'front', 'saudara', 'islam', 'serah', 'bantu', 'bangun', 'ponpes', 'masjid', 'dampak', 'longs']</t>
+          <t>['siaran', 'pers', 'presiden', 'jokowi', 'menggadaikan', 'keselamatan', 'warga', 'menghapus', 'faba', 'limbah', 'jatam']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['siar', 'pers', 'presiden', 'jokowi', 'gadai', 'selamat', 'warga', 'hapus', 'faba', 'limbah', 'jatam']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16270</v>
+        <v>27037</v>
       </c>
       <c r="C26" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt selain memberikan bantuan dan pertolongan evakuasi relawan bidang kemanusiaan front persaudaraan islam fpi provinsi banten </t>
+          <t>rt ayo berikan ide bagaimana supaya presiden memiliki kesadaran bahwa uu minerba uu cipta kerja berikut pp yang mengeluarkan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'selain', 'memberikan', 'bantuan', 'dan', 'pertolongan', 'evakuasi', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'provinsi', 'banten']</t>
+          <t>['rt', 'ayo', 'berikan', 'ide', 'bagaimana', 'supaya', 'presiden', 'memiliki', 'kesadaran', 'bahwa', 'uu', 'minerba', 'uu', 'cipta', 'kerja', 'berikut', 'pp', 'yang', 'mengeluarkan']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'ayo', 'berikan', 'ide', 'bagaimana', 'supaya', 'presiden', 'memiliki', 'kesadaran', 'bahwa', 'undang, undang', 'minerba', 'undang, undang', 'cipta', 'kerja', 'berikut', 'pp', 'yang', 'mengeluarkan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['bantuan', 'pertolongan', 'evakuasi', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'provinsi', 'banten']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['bantu', 'tolong', 'evakuasi', 'rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'provinsi', 'banten']</t>
+          <t>['ayo', 'ide', 'presiden', 'memiliki', 'kesadaran', 'undang, undang', 'minerba', 'undang, undang', 'cipta', 'kerja', 'pp', 'mengeluarkan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ayo', 'ide', 'presiden', 'milik', 'sadar', 'undang undang', 'minerba', 'undang undang', 'cipta', 'kerja', 'pp', 'keluar']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16271</v>
+        <v>27038</v>
       </c>
       <c r="C27" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt hari ini senin puluhan anggota front persaudaraan islam fpi mengirimkan bantuan logistik barupa puluhan paket </t>
+          <t>rt tindakan yang dilakukan presiden dengan mencabut faba tidak sebagai limbah  adalah sama artinya presiden melakukan tin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'hari', 'ini', 'senin', 'puluhan', 'anggota', 'front', 'persaudaraan', 'islam', 'fpi', 'mengirimkan', 'bantuan', 'logistik', 'barupa', 'puluhan', 'paket']</t>
+          <t>['rt', 'tindakan', 'yang', 'dilakukan', 'presiden', 'dengan', 'mencabut', 'faba', 'tidak', 'sebagai', 'limbah', 'adalah', 'sama', 'artinya', 'presiden', 'melakukan', 'tin']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'tindakan', 'yang', 'dilakukan', 'presiden', 'dengan', 'mencabut', 'faba', 'tidak', 'sebagai', 'limbah', 'adalah', 'sama', 'artinya', 'presiden', 'melakukan', 'tin']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['senin', 'puluhan', 'anggota', 'front', 'persaudaraan', 'islam', 'fpi', 'mengirimkan', 'bantuan', 'logistik', 'barupa', 'puluhan', 'paket']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['senin', 'puluh', 'anggota', 'front', 'saudara', 'islam', 'fpi', 'kirim', 'bantu', 'logistik', 'barupa', 'puluh', 'paket']</t>
+          <t>['tindakan', 'presiden', 'mencabut', 'faba', 'limbah', 'presiden', 'tin']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['tindak', 'presiden', 'cabut', 'faba', 'limbah', 'presiden', 'tin']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16272</v>
+        <v>27039</v>
       </c>
       <c r="C28" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dalam aksi kemanusian bencana banjir di bekasi front persaudaraan islam fpi menerjunkan kekuatan tim unit perahu unit </t>
+          <t>rt penghapusan limbah batu bara dari kategori limbah berbahaya dan beracun  merupakan kejahatan lingkungan yang dilakuk</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'aksi', 'kemanusian', 'bencana', 'banjir', 'di', 'bekasi', 'front', 'persaudaraan', 'islam', 'fpi', 'menerjunkan', 'kekuatan', 'tim', 'unit', 'perahu', 'unit']</t>
+          <t>['rt', 'penghapusan', 'limbah', 'batu', 'bara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun', 'merupakan', 'kejahatan', 'lingkungan', 'yang', 'dilakuk']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'penghapusan', 'limbah', 'batu', 'bara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun', 'merupakan', 'kejahatan', 'lingkungan', 'yang', 'dilakuk']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['aksi', 'kemanusian', 'bencana', 'banjir', 'bekasi', 'front', 'persaudaraan', 'islam', 'fpi', 'menerjunkan', 'kekuatan', 'tim', 'unit', 'perahu', 'unit']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['aksi', 'kemanusian', 'bencana', 'banjir', 'bekas', 'front', 'saudara', 'islam', 'fpi', 'terjun', 'kuat', 'tim', 'unit', 'perahu', 'unit']</t>
+          <t>['penghapusan', 'limbah', 'batu', 'bara', 'kategori', 'limbah', 'berbahaya', 'beracun', 'kejahatan', 'lingkungan', 'dilakuk']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['hapus', 'limbah', 'batu', 'bara', 'kategori', 'limbah', 'bahaya', 'racun', 'jahat', 'lingkung', 'dilakuk']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16273</v>
+        <v>27040</v>
       </c>
       <c r="C29" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tim advokasi jaminan dari tim di kemenko polhukam bahwa pihak ptpn viii tidak akan menggusur paksa lahan pesantre</t>
+          <t>rt pemerintah kian mengabaikan lingkungan hidup dalam membuat sebuah kebijakan terbukti uu cilaka banyak mengabaikan soal</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['tim', 'advokasi', 'jaminan', 'dari', 'tim', 'di', 'kemenko', 'polhukam', 'bahwa', 'pihak', 'ptpn', 'viii', 'tidak', 'akan', 'menggusur', 'paksa', 'lahan', 'pesantre']</t>
+          <t>['rt', 'pemerintah', 'kian', 'mengabaikan', 'lingkungan', 'hidup', 'dalam', 'membuat', 'sebuah', 'kebijakan', 'terbukti', 'uu', 'cilaka', 'banyak', 'mengabaikan', 'soal']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'pemerintah', 'kian', 'mengabaikan', 'lingkungan', 'hidup', 'dalam', 'membuat', 'sebuah', 'kebijakan', 'terbukti', 'undang, undang', 'cilaka', 'banyak', 'mengabaikan', 'soal']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['tim', 'advokasi', 'jaminan', 'tim', 'kemenko', 'polhukam', 'ptpn', 'viii', 'menggusur', 'paksa', 'lahan', 'pesantre']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['tim', 'advokasi', 'jamin', 'tim', 'kemenko', 'polhukam', 'ptpn', 'viii', 'gusur', 'paksa', 'lahan', 'pesantre']</t>
+          <t>['pemerintah', 'kian', 'mengabaikan', 'lingkungan', 'hidup', 'kebijakan', 'terbukti', 'undang, undang', 'cilaka', 'mengabaikan']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['perintah', 'kian', 'abai', 'lingkung', 'hidup', 'bijak', 'bukti', 'undang undang', 'cilaka', 'abai']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16274</v>
+        <v>27041</v>
       </c>
       <c r="C30" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt detikdetik posko banjir front persaudaraan islam dibubarkan polisi di cipinang melayu jaktim https</t>
+          <t>rt dengan diberlakukannya peraturan turunan dari undangundang omnibus law cipta kerja ini maka akan sangat sulit untuk men</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'detikdetik', 'posko', 'banjir', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'di', 'cipinang', 'melayu', 'jaktim', 'https']</t>
+          <t>['rt', 'dengan', 'diberlakukannya', 'peraturan', 'turunan', 'dari', 'undangundang', 'omnibus', 'law', 'cipta', 'kerja', 'ini', 'maka', 'akan', 'sangat', 'sulit', 'untuk', 'men']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'dengan', 'diberlakukannya', 'peraturan', 'turunan', 'dari', 'undangundang', 'omnibus', 'law', 'cipta', 'kerja', 'ini', 'maka', 'akan', 'sangat', 'sulit', 'untuk', 'men']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['detikdetik', 'posko', 'banjir', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'cipinang', 'melayu', 'jaktim', 'https']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['detikdetik', 'posko', 'banjir', 'front', 'saudara', 'islam', 'bubar', 'polisi', 'cipinang', 'melayu', 'jaktim', 'https']</t>
+          <t>['diberlakukannya', 'peraturan', 'turunan', 'undangundang', 'omnibus', 'law', 'cipta', 'kerja', 'sulit', 'men']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['laku', 'atur', 'turun', 'undangundang', 'omnibus', 'law', 'cipta', 'kerja', 'sulit', 'men']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16275</v>
+        <v>27042</v>
       </c>
       <c r="C31" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>buruh rezim hari ini memang sudah tidak lagi berpihak kepada kepentingan rakyat dimana uu ciptaker tersebut bany</t>
+          <t>rt pencabutan limbah abu batubara dari kategori bahan beracun dan berbahaya  oleh presiden adalah sebuah langkah</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['buruh', 'rezim', 'hari', 'ini', 'memang', 'sudah', 'tidak', 'lagi', 'berpihak', 'kepada', 'kepentingan', 'rakyat', 'dimana', 'uu', 'ciptaker', 'tersebut', 'bany']</t>
+          <t>['rt', 'pencabutan', 'limbah', 'abu', 'batubara', 'dari', 'kategori', 'bahan', 'beracun', 'dan', 'berbahaya', 'oleh', 'presiden', 'adalah', 'sebuah', 'langkah']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'pencabutan', 'limbah', 'abu', 'batubara', 'dari', 'kategori', 'bahan', 'beracun', 'dan', 'berbahaya', 'oleh', 'presiden', 'adalah', 'sebuah', 'langkah']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['buruh', 'rezim', 'berpihak', 'kepentingan', 'rakyat', 'dimana', 'uu', 'ciptaker', 'bany']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['buruh', 'rezim', 'pihak', 'penting', 'rakyat', 'mana', 'uu', 'ciptaker', 'bany']</t>
+          <t>['pencabutan', 'limbah', 'abu', 'batubara', 'kategori', 'bahan', 'beracun', 'berbahaya', 'presiden', 'langkah']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['cabut', 'limbah', 'abu', 'batubara', 'kategori', 'bahan', 'racun', 'bahaya', 'presiden', 'langkah']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16276</v>
+        <v>27043</v>
       </c>
       <c r="C32" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>dalam aksi kemanusian bencana banjir di bekasi front persaudaraan islam fpi menerjunkan kekuatan tim unit pera</t>
+          <t>indonesia police watch ipw menyebut sudah ada polisi yang menjadi tersangka kasusunlawful killinganggota laskar</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['dalam', 'aksi', 'kemanusian', 'bencana', 'banjir', 'di', 'bekasi', 'front', 'persaudaraan', 'islam', 'fpi', 'menerjunkan', 'kekuatan', 'tim', 'unit', 'pera']</t>
+          <t>['indonesia', 'police', 'watch', 'ipw', 'menyebut', 'sudah', 'ada', 'polisi', 'yang', 'menjadi', 'tersangka', 'kasusunlawful', 'killinganggota', 'laskar']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['indonesia', 'police', 'watch', 'ipw', 'menyebut', 'sudah', 'ada', 'polisi', 'yang', 'menjadi', 'tersangka', 'kasusunlawful', 'killinganggota', 'laskar']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['aksi', 'kemanusian', 'bencana', 'banjir', 'bekasi', 'front', 'persaudaraan', 'islam', 'fpi', 'menerjunkan', 'kekuatan', 'tim', 'unit', 'pera']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['aksi', 'kemanusian', 'bencana', 'banjir', 'bekas', 'front', 'saudara', 'islam', 'fpi', 'terjun', 'kuat', 'tim', 'unit', 'pera']</t>
+          <t>['indonesia', 'police', 'watch', 'ipw', 'menyebut', 'polisi', 'tersangka', 'kasusunlawful', 'killinganggota', 'laskar']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['indonesia', 'police', 'watch', 'ipw', 'sebut', 'polisi', 'sangka', 'kasusunlawful', 'killinganggota', 'laskar']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16277</v>
+        <v>27044</v>
       </c>
       <c r="C33" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>hari ini senin puluhan anggota front persaudaraan islam fpi mengirimkan bantuan logistik barupa pul</t>
+          <t>rt halo pembaca kasus enam laskar front pembela islam atau fpi yang ditembak mati polisi di km tol jakartacikampek pa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'senin', 'puluhan', 'anggota', 'front', 'persaudaraan', 'islam', 'fpi', 'mengirimkan', 'bantuan', 'logistik', 'barupa', 'pul']</t>
+          <t>['rt', 'halo', 'pembaca', 'kasus', 'enam', 'laskar', 'front', 'pembela', 'islam', 'atau', 'fpi', 'yang', 'ditembak', 'mati', 'polisi', 'di', 'km', 'tol', 'jakartacikampek', 'pa']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'halo', 'pembaca', 'kasus', 'enam', 'laskar', 'front', 'pembela', 'islam', 'atau', 'front, pembela, islam', 'yang', 'ditembak', 'mati', 'polisi', 'di', 'km', 'tol', 'jakartacikampek', 'pak']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['senin', 'puluhan', 'anggota', 'front', 'persaudaraan', 'islam', 'fpi', 'mengirimkan', 'bantuan', 'logistik', 'barupa', 'pul']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['senin', 'puluh', 'anggota', 'front', 'saudara', 'islam', 'fpi', 'kirim', 'bantu', 'logistik', 'barupa', 'pul']</t>
+          <t>['halo', 'pembaca', 'enam', 'laskar', 'front', 'pembela', 'islam', 'front, pembela, islam', 'ditembak', 'mati', 'polisi', 'km', 'tol', 'jakartacikampek']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['halo', 'baca', 'enam', 'laskar', 'front', 'bela', 'islam', 'front bela islam', 'tembak', 'mati', 'polisi', 'km', 'tol', 'jakartacikampek']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16278</v>
+        <v>27045</v>
       </c>
       <c r="C34" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>detikdetik posko banjir front persaudaraan islam dibubarkan polisi di cipinang melayu jaktim</t>
+          <t>membantah puan imam masjid istiqlal istiqlal sudah menjadi tempat wisata mancanegara sekaligus ruang studi untuk</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['detikdetik', 'posko', 'banjir', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'di', 'cipinang', 'melayu', 'jaktim']</t>
+          <t>['membantah', 'puan', 'imam', 'masjid', 'istiqlal', 'istiqlal', 'sudah', 'menjadi', 'tempat', 'wisata', 'mancanegara', 'sekaligus', 'ruang', 'studi', 'untuk']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['membantah', 'puan', 'imam', 'masjid', 'istiqlal', 'istiqlal', 'sudah', 'menjadi', 'tempat', 'wisata', 'mancanegara', 'sekaligus', 'ruang', 'studi', 'untuk']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['detikdetik', 'posko', 'banjir', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'cipinang', 'melayu', 'jaktim']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['detikdetik', 'posko', 'banjir', 'front', 'saudara', 'islam', 'bubar', 'polisi', 'cipinang', 'melayu', 'jaktim']</t>
+          <t>['membantah', 'puan', 'imam', 'masjid', 'istiqlal', 'istiqlal', 'wisata', 'mancanegara', 'ruang', 'studi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['ban', 'puan', 'imam', 'masjid', 'istiqlal', 'istiqlal', 'wisata', 'mancanegara', 'ruang', 'studi']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16279</v>
+        <v>27046</v>
       </c>
       <c r="C35" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>front persaudaraan islam membantu warga difabel dan anakanak korban terdampak banjir jadetabek</t>
+          <t>aktivis puan tidak lihat realita sesungguhnya masjid istiqlal yang terbuka bagi semua kalangan agama aku yang ka</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['front', 'persaudaraan', 'islam', 'membantu', 'warga', 'difabel', 'dan', 'anakanak', 'korban', 'terdampak', 'banjir', 'jadetabek']</t>
+          <t>['aktivis', 'puan', 'tidak', 'lihat', 'realita', 'sesungguhnya', 'masjid', 'istiqlal', 'yang', 'terbuka', 'bagi', 'semua', 'kalangan', 'agama', 'aku', 'yang', 'ka']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['aktivis', 'puan', 'tidak', 'lihat', 'realita', 'sesungguhnya', 'masjid', 'istiqlal', 'yang', 'terbuka', 'bagi', 'semua', 'kalangan', 'agama', 'aku', 'yang', 'kakak']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['front', 'persaudaraan', 'islam', 'membantu', 'warga', 'difabel', 'anakanak', 'korban', 'terdampak', 'banjir', 'jadetabek']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['front', 'saudara', 'islam', 'bantu', 'warga', 'difabel', 'anakanak', 'korban', 'dampak', 'banjir', 'jadetabek']</t>
+          <t>['aktivis', 'puan', 'lihat', 'realita', 'sesungguhnya', 'masjid', 'istiqlal', 'terbuka', 'kalangan', 'agama', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['aktivis', 'puan', 'lihat', 'realita', 'sungguh', 'masjid', 'istiqlal', 'buka', 'kalang', 'agama', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16280</v>
+        <v>27047</v>
       </c>
       <c r="C36" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>selain memberikan bantuan dan pertolongan evakuasi relawan bidang kemanusiaan front persaudaraan islam fpi provi</t>
+          <t>rt id dubes kanada terpesona ruang terbuka hijau jakarta saat gowes bareng anies</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['selain', 'memberikan', 'bantuan', 'dan', 'pertolongan', 'evakuasi', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'provi']</t>
+          <t>['rt', 'id', 'dubes', 'kanada', 'terpesona', 'ruang', 'terbuka', 'hijau', 'jakarta', 'saat', 'gowes', 'bareng', 'anies']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'id', 'duta, besar', 'kanada', 'terpesona', 'ruang', 'terbuka', 'hijau', 'jakarta', 'saat', 'gowes', 'bareng', 'anies']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['bantuan', 'pertolongan', 'evakuasi', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'provi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bantu', 'tolong', 'evakuasi', 'rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'provi']</t>
+          <t>['id', 'duta, besar', 'kanada', 'terpesona', 'ruang', 'terbuka', 'hijau', 'jakarta', 'gowes', 'bareng', 'anies']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['id', 'duta besar', 'kanada', 'pesona', 'ruang', 'buka', 'hijau', 'jakarta', 'gowes', 'bareng', 'anies']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16281</v>
+        <v>27048</v>
       </c>
       <c r="C37" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>fpi radikal dan suka meminjamkan perahu</t>
+          <t>rt kepemilikan saham bir milik pemprov dki jakarta di pt delta djakarta kembali mencuat setelah presiden jokowi berencana memb</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['fpi', 'radikal', 'dan', 'suka', 'meminjamkan', 'perahu']</t>
+          <t>['rt', 'kepemilikan', 'saham', 'bir', 'milik', 'pemprov', 'dki', 'jakarta', 'di', 'pt', 'delta', 'djakarta', 'kembali', 'mencuat', 'setelah', 'presiden', 'jokowi', 'berencana', 'memb']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'kepemilikan', 'saham', 'bir', 'milik', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'di', 'pt', 'delta', 'di, jakarta', 'kembali', 'mencuat', 'setelah', 'presiden', 'jokowi', 'berencana', 'memb']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['fpi', 'radikal', 'suka', 'meminjamkan', 'perahu']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['fpi', 'radikal', 'suka', 'pinjam', 'perahu']</t>
+          <t>['kepemilikan', 'saham', 'bir', 'milik', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'pt', 'delta', 'di, jakarta', 'mencuat', 'presiden', 'jokowi', 'berencana', 'memb']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['milik', 'saham', 'bir', 'milik', 'perintah provinsi', 'daerah khusus ibukota', 'jakarta', 'pt', 'delta', 'di jakarta', 'cuat', 'presiden', 'jokowi', 'rencana', 'memb']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16282</v>
+        <v>27049</v>
       </c>
       <c r="C38" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt indonesias jakarta slammed by severe monsoon floods in pictures</t>
+          <t>kuasa hukum surat perintah penangkapan dan surat perintah penahanan dari polisi terhadap habib rizieq cacat hukum</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'indonesias', 'jakarta', 'slammed', 'by', 'severe', 'monsoon', 'floods', 'in', 'pictures']</t>
+          <t>['kuasa', 'hukum', 'surat', 'perintah', 'penangkapan', 'dan', 'surat', 'perintah', 'penahanan', 'dari', 'polisi', 'terhadap', 'habib', 'rizieq', 'cacat', 'hukum']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kuasa', 'hukum', 'surat', 'perintah', 'penangkapan', 'dan', 'surat', 'perintah', 'penahanan', 'dari', 'polisi', 'terhadap', 'habib', 'rizieq', 'cacat', 'hukum']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['indonesias', 'jakarta', 'slammed', 'by', 'severe', 'monsoon', 'floods', 'in', 'pictures']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['indonesias', 'jakarta', 'slammed', 'by', 'severe', 'monsoon', 'floods', 'in', 'pictures']</t>
+          <t>['kuasa', 'hukum', 'surat', 'perintah', 'penangkapan', 'surat', 'perintah', 'penahanan', 'polisi', 'habib', 'rizieq', 'cacat', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kuasa', 'hukum', 'surat', 'perintah', 'tangkap', 'surat', 'perintah', 'tahan', 'polisi', 'habib', 'rizieq', 'cacat', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16283</v>
+        <v>27050</v>
       </c>
       <c r="C39" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>fpi</t>
+          <t>rt anies baswedan mengklaim fasilitas olahraga di pusat pelatihan olahraga pelajar dki jakarta memiliki fasilitas yang levelny</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['fpi']</t>
+          <t>['rt', 'anies', 'baswedan', 'mengklaim', 'fasilitas', 'olahraga', 'di', 'pusat', 'pelatihan', 'olahraga', 'pelajar', 'dki', 'jakarta', 'memiliki', 'fasilitas', 'yang', 'levelny']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'anies', 'baswedan', 'mengklaim', 'fasilitas', 'olahraga', 'di', 'pusat', 'pelatihan', 'olahraga', 'pelajar', 'daerah, khusus, ibukota', 'jakarta', 'memiliki', 'fasilitas', 'yang', 'levelny']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['fpi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['fpi']</t>
+          <t>['anies', 'baswedan', 'mengklaim', 'fasilitas', 'olahraga', 'pusat', 'pelatihan', 'olahraga', 'pelajar', 'daerah, khusus, ibukota', 'jakarta', 'memiliki', 'fasilitas', 'levelny']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['anies', 'baswedan', 'klaim', 'fasilitas', 'olahraga', 'pusat', 'latih', 'olahraga', 'ajar', 'daerah khusus ibukota', 'jakarta', 'milik', 'fasilitas', 'levelny']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16284</v>
+        <v>27051</v>
       </c>
       <c r="C40" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">gubernur dki jakarta anies baswedan mengatakan banjir di jakarta saat ini telah persen surut anies berterima </t>
+          <t>rt kapolresta malang kombes pol leonardus simarmata menginstruksikan demonstran ditembak di tempat dan darah mereka halal apa ya</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'mengatakan', 'banjir', 'di', 'jakarta', 'saat', 'ini', 'telah', 'persen', 'surut', 'anies', 'berterima']</t>
+          <t>['rt', 'kapolresta', 'malang', 'kombes', 'pol', 'leonardus', 'simarmata', 'menginstruksikan', 'demonstran', 'ditembak', 'di', 'tempat', 'dan', 'darah', 'mereka', 'halal', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'kapolresta', 'malang', 'kombes', 'pol', 'leonardus', 'simarmata', 'menginstruksikan', 'demonstran', 'ditembak', 'di', 'tempat', 'dan', 'darah', 'mereka', 'halal', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'banjir', 'jakarta', 'persen', 'surut', 'anies', 'berterima']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'banjir', 'jakarta', 'persen', 'surut', 'anies', 'terima']</t>
+          <t>['kapolresta', 'malang', 'kombes', 'pol', 'leonardus', 'simarmata', 'menginstruksikan', 'demonstran', 'ditembak', 'darah', 'halal']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kapolresta', 'malang', 'kombes', 'pol', 'leonardus', 'simarmata', 'instruksi', 'demonstran', 'tembak', 'darah', 'halal']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16285</v>
+        <v>27052</v>
       </c>
       <c r="C41" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt saat relawan bidang kemanusiaan front persaudaraan islam fpi membantu korban terdampak banjir di komplek wisma tajur pondok</t>
+          <t>badan nasional penanggulangan bencana bnpb memberikan penghargaan bidang penanggulangan bencana tahun kepada</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'saat', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'korban', 'terdampak', 'banjir', 'di', 'komplek', 'wisma', 'tajur', 'pondok']</t>
+          <t>['badan', 'nasional', 'penanggulangan', 'bencana', 'bnpb', 'memberikan', 'penghargaan', 'bidang', 'penanggulangan', 'bencana', 'tahun', 'kepada']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['badan', 'nasional', 'penanggulangan', 'bencana', 'bnpb', 'memberikan', 'penghargaan', 'bidang', 'penanggulangan', 'bencana', 'tahun', 'kepada']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'korban', 'terdampak', 'banjir', 'komplek', 'wisma', 'tajur', 'pondok']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'bantu', 'korban', 'dampak', 'banjir', 'komplek', 'wisma', 'tajur', 'pondok']</t>
+          <t>['badan', 'nasional', 'penanggulangan', 'bencana', 'bnpb', 'penghargaan', 'bidang', 'penanggulangan', 'bencana']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['badan', 'nasional', 'tanggulang', 'bencana', 'bnpb', 'harga', 'bidang', 'tanggulang', 'bencana']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16286</v>
+        <v>27053</v>
       </c>
       <c r="C42" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt relawan kemanusiaan front persaudaraan islam fpi membantu evakuasi warga yang terjebak banjir di jakarta menggunakan perahu </t>
+          <t>rt ini salah satu terjemahan teknis omnibus law menurunkan standar lingkungan hidup demi memikat investor siapa bilang tidak</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'evakuasi', 'warga', 'yang', 'terjebak', 'banjir', 'di', 'jakarta', 'menggunakan', 'perahu']</t>
+          <t>['rt', 'ini', 'salah', 'satu', 'terjemahan', 'teknis', 'omnibus', 'law', 'menurunkan', 'standar', 'lingkungan', 'hidup', 'demi', 'memikat', 'investor', 'siapa', 'bilang', 'tidak']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ini', 'salah', 'satu', 'terjemahan', 'teknis', 'omnibus', 'law', 'menurunkan', 'standar', 'lingkungan', 'hidup', 'demi', 'memikat', 'investor', 'siapa', 'bilang', 'tidak']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'evakuasi', 'warga', 'terjebak', 'banjir', 'jakarta', 'perahu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['rawan', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'bantu', 'evakuasi', 'warga', 'jebak', 'banjir', 'jakarta', 'perahu']</t>
+          <t>['salah', 'terjemahan', 'teknis', 'omnibus', 'law', 'menurunkan', 'standar', 'lingkungan', 'hidup', 'memikat', 'investor']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['salah', 'terjemah', 'teknis', 'omnibus', 'law', 'turun', 'standar', 'lingkung', 'hidup', 'mikat', 'investor']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16287</v>
+        <v>27054</v>
       </c>
       <c r="C43" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt relawan bidang kemanusiaan front persaudaraan islam fpi mendirikan dapur umum dan membagikan makanan untuk korban terdampak </t>
+          <t xml:space="preserve">rt org breaking news presiden jokowi menghapus limbah batubara dari kategori limbah berbahaya dan beracun </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'dapur', 'umum', 'dan', 'membagikan', 'makanan', 'untuk', 'korban', 'terdampak']</t>
+          <t>['rt', 'org', 'breaking', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'dapur', 'membagikan', 'makanan', 'korban', 'terdampak']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'diri', 'dapur', 'bagi', 'makan', 'korban', 'dampak']</t>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'kategori', 'limbah', 'berbahaya', 'beracun']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'hapus', 'limbah', 'batubara', 'kategori', 'limbah', 'bahaya', 'racun']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16288</v>
+        <v>27055</v>
       </c>
       <c r="C44" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>relawan kemanusiaan front persaudaraan islam fpi membantu evakuasi warga yang terjebak banjir di jakarta mengguna</t>
+          <t>rt myanmar police website hacked</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'evakuasi', 'warga', 'yang', 'terjebak', 'banjir', 'di', 'jakarta', 'mengguna']</t>
+          <t>['rt', 'myanmar', 'police', 'website', 'hacked']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'myanmar', 'police', 'website', 'hacked']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'evakuasi', 'warga', 'terjebak', 'banjir', 'jakarta', 'mengguna']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['rawan', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'bantu', 'evakuasi', 'warga', 'jebak', 'banjir', 'jakarta', 'guna']</t>
+          <t>['myanmar', 'police', 'website', 'hacked']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['myanmar', 'police', 'website', 'hacked']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16289</v>
+        <v>27056</v>
       </c>
       <c r="C45" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>saat relawan bidang kemanusiaan front persaudaraan islam fpi membantu korban terdampak banjir di komplek wisma ta</t>
+          <t>rt yg begini dlm bahasa jawa namanya nyemoni</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['saat', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'korban', 'terdampak', 'banjir', 'di', 'komplek', 'wisma', 'ta']</t>
+          <t>['rt', 'yg', 'begini', 'dlm', 'bahasa', 'jawa', 'namanya', 'nyemoni']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'yang', 'begini', 'dalam', 'bahasa', 'jawa', 'namanya', 'nyemoni']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'membantu', 'korban', 'terdampak', 'banjir', 'komplek', 'wisma', 'ta']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'bantu', 'korban', 'dampak', 'banjir', 'komplek', 'wisma', 'ta']</t>
+          <t>['bahasa', 'jawa', 'namanya', 'nyemoni']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['bahasa', 'jawa', 'nama', 'nyemoni']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16290</v>
+        <v>27057</v>
       </c>
       <c r="C46" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt suara muhammadiyah sm meluncurkan anak usaha yang diberi nama logmart</t>
+          <t>rt nadiem makarim menyebut kemendikbud akan merevisi draf peta jalan pendidikan nasional yang akan memuat frasa aga</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'suara', 'muhammadiyah', 'sm', 'meluncurkan', 'anak', 'usaha', 'yang', 'diberi', 'nama', 'logmart']</t>
+          <t>['rt', 'nadiem', 'makarim', 'menyebut', 'kemendikbud', 'akan', 'merevisi', 'draf', 'peta', 'jalan', 'pendidikan', 'nasional', 'yang', 'akan', 'memuat', 'frasa', 'aga']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'nadiem', 'makarim', 'menyebut', 'kementerian, pendidikan, dan, kebudayaan', 'akan', 'merevisi', 'draf', 'peta', 'jalan', 'pendidikan', 'nasional', 'yang', 'akan', 'memuat', 'frasa', 'aga']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['suara', 'muhammadiyah', 'sm', 'meluncurkan', 'anak', 'usaha', 'nama', 'logmart']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['suara', 'muhammadiyah', 'sm', 'luncur', 'anak', 'usaha', 'nama', 'logmart']</t>
+          <t>['nadiem', 'makarim', 'menyebut', 'kementerian, pendidikan, dan, kebudayaan', 'merevisi', 'draf', 'peta', 'jalan', 'pendidikan', 'nasional', 'memuat', 'frasa', 'aga']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['nadiem', 'makarim', 'sebut', 'menteri didik dan budaya', 'revisi', 'draf', 'peta', 'jalan', 'didik', 'nasional', 'muat', 'frasa', 'aga']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16291</v>
+        <v>27058</v>
       </c>
       <c r="C47" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>pengamat politik rest area km sampai ditutup dan bangunan diratakan ini menunjukkan upaya menghilangkan baran</t>
+          <t>rt pidato siswoyo tokoh pki yang pernah usik pendidikan agama di sekolahsekolah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['pengamat', 'politik', 'rest', 'area', 'km', 'sampai', 'ditutup', 'dan', 'bangunan', 'diratakan', 'ini', 'menunjukkan', 'upaya', 'menghilangkan', 'baran']</t>
+          <t>['rt', 'pidato', 'siswoyo', 'tokoh', 'pki', 'yang', 'pernah', 'usik', 'pendidikan', 'agama', 'di', 'sekolahsekolah']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'pidato', 'siswoyo', 'tokoh', 'partai, komunis, indonesia', 'yang', 'pernah', 'usik', 'pendidikan', 'agama', 'di', 'sekolahsekolah']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['pengamat', 'politik', 'rest', 'area', 'km', 'ditutup', 'bangunan', 'diratakan', 'upaya', 'menghilangkan', 'baran']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['amat', 'politik', 'rest', 'area', 'km', 'tutup', 'bangun', 'rata', 'upaya', 'hilang', 'baran']</t>
+          <t>['pidato', 'siswoyo', 'tokoh', 'partai, komunis, indonesia', 'usik', 'pendidikan', 'agama', 'sekolahsekolah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['pidato', 'siswoyo', 'tokoh', 'partai komunis indonesia', 'usik', 'didik', 'agama', 'sekolahsekolah']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16292</v>
+        <v>27059</v>
       </c>
       <c r="C48" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt satu hal yg luput dari perbincangan banjir parah di kemang hari ini lippo</t>
+          <t>rt oknum polisi di jatim dari tingkat polsek hingga polda diduga terlibat peredaran narkoba</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'satu', 'hal', 'yg', 'luput', 'dari', 'perbincangan', 'banjir', 'parah', 'di', 'kemang', 'hari', 'ini', 'lippo']</t>
+          <t>['rt', 'oknum', 'polisi', 'di', 'jatim', 'dari', 'tingkat', 'polsek', 'hingga', 'polda', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'oknum', 'polisi', 'di', 'jawa, timur', 'dari', 'tingkat', 'kepolisian, sektor', 'hingga', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['luput', 'perbincangan', 'banjir', 'parah', 'kemang', 'lippo']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['luput', 'bincang', 'banjir', 'parah', 'kemang', 'lippo']</t>
+          <t>['oknum', 'polisi', 'jawa, timur', 'tingkat', 'kepolisian, sektor', 'kepolisian, daerah', 'diduga', 'terlibat', 'peredaran', 'narkoba']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['oknum', 'polisi', 'jawa timur', 'tingkat', 'polisi sektor', 'polisi daerah', 'duga', 'libat', 'edar', 'narkoba']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16293</v>
+        <v>27060</v>
       </c>
       <c r="C49" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sedikitnya ada kasus kekerasan dan teror yang dilakukan kelompok teroris tpnpbopm selama dua bulan terakhir ini</t>
+          <t>tim relawan kemanusiaan kalsel melakukan penyaluran bantuan bagi ponpes yang terdampak banjir di kabupaten tanah la</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['sedikitnya', 'ada', 'kasus', 'kekerasan', 'dan', 'teror', 'yang', 'dilakukan', 'kelompok', 'teroris', 'tpnpbopm', 'selama', 'dua', 'bulan', 'terakhir', 'ini']</t>
+          <t>['tim', 'relawan', 'kemanusiaan', 'kalsel', 'melakukan', 'penyaluran', 'bantuan', 'bagi', 'ponpes', 'yang', 'terdampak', 'banjir', 'di', 'kabupaten', 'tanah', 'la']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['tim', 'relawan', 'kemanusiaan', 'kalsel', 'melakukan', 'penyaluran', 'bantuan', 'bagi', 'pondok, pesantren', 'yang', 'terdampak', 'banjir', 'di', 'kabupaten', 'tanah', 'lah']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['kekerasan', 'teror', 'kelompok', 'teroris', 'tpnpbopm']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['keras', 'teror', 'kelompok', 'teroris', 'tpnpbopm']</t>
+          <t>['tim', 'relawan', 'kemanusiaan', 'kalsel', 'penyaluran', 'bantuan', 'pondok, pesantren', 'terdampak', 'banjir', 'kabupaten', 'tanah']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tim', 'rawan', 'manusia', 'kalsel', 'salur', 'bantu', 'pondok pesantren', 'dampak', 'banjir', 'kabupaten', 'tanah']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16294</v>
+        <v>27061</v>
       </c>
       <c r="C50" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt selama hari relawan kemanusiaan front persaudaraan islam atau fpi terus bergerak membantu warga terdampak banjir di berbagai</t>
+          <t>relawan bidang kemanusiaan front persaudaraan islam bk fpi kalsel dan rapekas relawan peduli kemanusiaan kalsel</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'selama', 'hari', 'relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'atau', 'fpi', 'terus', 'bergerak', 'membantu', 'warga', 'terdampak', 'banjir', 'di', 'berbagai']</t>
+          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'bk', 'fpi', 'kalsel', 'dan', 'rapekas', 'relawan', 'peduli', 'kemanusiaan', 'kalsel']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'buku', 'front, pembela, islam', 'kalsel', 'dan', 'rapekas', 'relawan', 'peduli', 'kemanusiaan', 'kalsel']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'bergerak', 'membantu', 'warga', 'terdampak', 'banjir']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['rawan', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'gerak', 'bantu', 'warga', 'dampak', 'banjir']</t>
+          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'buku', 'front, pembela, islam', 'kalsel', 'rapekas', 'relawan', 'peduli', 'kemanusiaan', 'kalsel']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'buku', 'front bela islam', 'kalsel', 'rapekas', 'rawan', 'peduli', 'manusia', 'kalsel']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16295</v>
+        <v>27062</v>
       </c>
       <c r="C51" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt fpi masih terus bergerak membagikan paket sembako dan alat sholat untuk korban bencana gempa bumi di mamuju dan sekitarnya ser</t>
+          <t>tiga anggota kepolisian daerah metro jaya terduga pelaku kasusunlawful killingterancam pidana delapan tahun penja</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'fpi', 'masih', 'terus', 'bergerak', 'membagikan', 'paket', 'sembako', 'dan', 'alat', 'sholat', 'untuk', 'korban', 'bencana', 'gempa', 'bumi', 'di', 'mamuju', 'dan', 'sekitarnya', 'ser']</t>
+          <t>['tiga', 'anggota', 'kepolisian', 'daerah', 'metro', 'jaya', 'terduga', 'pelaku', 'kasusunlawful', 'killingterancam', 'pidana', 'delapan', 'tahun', 'penja']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['tiga', 'anggota', 'kepolisian', 'daerah', 'metro', 'jaya', 'terduga', 'pelaku', 'kasusunlawful', 'killingterancam', 'pidana', 'delapan', 'tahun', 'penja']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['fpi', 'bergerak', 'membagikan', 'paket', 'sembako', 'alat', 'sholat', 'korban', 'bencana', 'gempa', 'bumi', 'mamuju', 'ser']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['fpi', 'gerak', 'bagi', 'paket', 'sembako', 'alat', 'sholat', 'korban', 'bencana', 'gempa', 'bumi', 'mamuju', 'ser']</t>
+          <t>['anggota', 'kepolisian', 'daerah', 'metro', 'jaya', 'terduga', 'pelaku', 'kasusunlawful', 'killingterancam', 'pidana', 'delapan', 'penja']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['anggota', 'polisi', 'daerah', 'metro', 'jaya', 'duga', 'laku', 'kasusunlawful', 'killingterancam', 'pidana', 'delapan', 'penja']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16296</v>
+        <v>27063</v>
       </c>
       <c r="C52" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sebanyak dua anggota polresta pulau ambon dan pulaupulau lease ditangkap setelah diketahui menjual senjata api dan</t>
+          <t>dikeluarkannya undangundang informasi dan transaksi elektronik uu ite dari program legislasi nasional prolegnas</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['sebanyak', 'dua', 'anggota', 'polresta', 'pulau', 'ambon', 'dan', 'pulaupulau', 'lease', 'ditangkap', 'setelah', 'diketahui', 'menjual', 'senjata', 'api', 'dan']</t>
+          <t>['dikeluarkannya', 'undangundang', 'informasi', 'dan', 'transaksi', 'elektronik', 'uu', 'ite', 'dari', 'program', 'legislasi', 'nasional', 'prolegnas']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dikeluarkannya', 'undangundang', 'informasi', 'dan', 'transaksi', 'elektronik', 'undang, undang', 'informasi, transaksi, elektronik', 'dari', 'program', 'legislasi', 'nasional', 'prolegnas']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['anggota', 'polresta', 'pulau', 'ambon', 'pulaupulau', 'lease', 'ditangkap', 'menjual', 'senjata', 'api']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['anggota', 'polresta', 'pulau', 'ambon', 'pulaupulau', 'lease', 'tangkap', 'jual', 'senjata', 'api']</t>
+          <t>['dikeluarkannya', 'undangundang', 'informasi', 'transaksi', 'elektronik', 'undang, undang', 'informasi, transaksi, elektronik', 'program', 'legislasi', 'nasional', 'prolegnas']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['keluar', 'undangundang', 'informasi', 'transaksi', 'elektronik', 'undang undang', 'informasi transaksi elektronik', 'program', 'legislasi', 'nasional', 'prolegnas']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16297</v>
+        <v>27064</v>
       </c>
       <c r="C53" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">bpbd mencatat bahwa februari tahun sebanyak rw tergenang usai hujan dengan curah mmhari mengguyur </t>
+          <t>rt russia sues google facebook twitter telegram and tiktok for not deleting protest content</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bpbd', 'mencatat', 'bahwa', 'februari', 'tahun', 'sebanyak', 'rw', 'tergenang', 'usai', 'hujan', 'dengan', 'curah', 'mmhari', 'mengguyur']</t>
+          <t>['rt', 'russia', 'sues', 'google', 'facebook', 'twitter', 'telegram', 'and', 'tiktok', 'for', 'not', 'deleting', 'protest', 'content']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'rusia', 'sues', 'google', 'facebook', 'twitter', 'telegram', 'and', 'tiktok', 'for', 'not', 'deleting', 'protest', 'content']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['bpbd', 'mencatat', 'februari', 'rw', 'tergenang', 'hujan', 'curah', 'mmhari', 'mengguyur']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bpbd', 'catat', 'februari', 'rw', 'genang', 'hujan', 'curah', 'mmhari', 'guyur']</t>
+          <t>['rusia', 'sues', 'google', 'facebook', 'twitter', 'telegram', 'and', 'tiktok', 'for', 'not', 'deleting', 'protest', 'content']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['rusia', 'sues', 'google', 'facebook', 'twitter', 'telegram', 'and', 'tiktok', 'for', 'not', 'deting', 'protest', 'content']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16298</v>
+        <v>27065</v>
       </c>
       <c r="C54" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt relawan bidang kemanusian front persaudaraan islam fpi membagikan nasi serta melakukan evakuasi korban banjir di bekasi timur</t>
+          <t>mengkritik mendikbud mui negara berjalan berdasarkan ketentuan agama seluruh aspek kehidupan dalam negara harus</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'bidang', 'kemanusian', 'front', 'persaudaraan', 'islam', 'fpi', 'membagikan', 'nasi', 'serta', 'melakukan', 'evakuasi', 'korban', 'banjir', 'di', 'bekasi', 'timur']</t>
+          <t>['mengkritik', 'mendikbud', 'mui', 'negara', 'berjalan', 'berdasarkan', 'ketentuan', 'agama', 'seluruh', 'aspek', 'kehidupan', 'dalam', 'negara', 'harus']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['mengkritik', 'menteri, pendidikan, dan, kebudayaan', 'majelis, ulama, indonesia', 'negara', 'berjalan', 'berdasarkan', 'ketentuan', 'agama', 'seluruh', 'aspek', 'kehidupan', 'dalam', 'negara', 'harus']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusian', 'front', 'persaudaraan', 'islam', 'fpi', 'membagikan', 'nasi', 'evakuasi', 'korban', 'banjir', 'bekasi', 'timur']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'kemanusian', 'front', 'saudara', 'islam', 'fpi', 'bagi', 'nasi', 'evakuasi', 'korban', 'banjir', 'bekas', 'timur']</t>
+          <t>['mengkritik', 'menteri, pendidikan, dan, kebudayaan', 'majelis, ulama, indonesia', 'negara', 'berjalan', 'berdasarkan', 'ketentuan', 'agama', 'aspek', 'kehidupan', 'negara']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kritik', 'menteri didik dan budaya', 'majelis ulama indonesia', 'negara', 'jalan', 'dasar', 'tentu', 'agama', 'aspek', 'hidup', 'negara']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16299</v>
+        <v>27066</v>
       </c>
       <c r="C55" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>telah mati kemanusiaan ekssekum fpi relawan front persaudaraan islam dibubarkan polisi saat memberikan bantuan</t>
+          <t>kuasa hukum mengharapkanpengusutan kasus pembunuhan terhadap laskar fpi tak berhenti di level anggota lapangan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['telah', 'mati', 'kemanusiaan', 'ekssekum', 'fpi', 'relawan', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'saat', 'memberikan', 'bantuan']</t>
+          <t>['kuasa', 'hukum', 'mengharapkanpengusutan', 'kasus', 'pembunuhan', 'terhadap', 'laskar', 'fpi', 'tak', 'berhenti', 'di', 'level', 'anggota', 'lapangan']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['kuasa', 'hukum', 'mengharapkanpengusutan', 'kasus', 'pembunuhan', 'terhadap', 'laskar', 'front, pembela, islam', 'tak', 'berhenti', 'di', 'level', 'anggota', 'lapangan']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['mati', 'kemanusiaan', 'ekssekum', 'fpi', 'relawan', 'front', 'persaudaraan', 'islam', 'dibubarkan', 'polisi', 'bantuan']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['mati', 'manusia', 'ekssekum', 'fpi', 'rawan', 'front', 'saudara', 'islam', 'bubar', 'polisi', 'bantu']</t>
+          <t>['kuasa', 'hukum', 'mengharapkanpengusutan', 'pembunuhan', 'laskar', 'front, pembela, islam', 'berhenti', 'level', 'anggota', 'lapangan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['kuasa', 'hukum', 'mengharapkanpengusutan', 'bunuh', 'laskar', 'front bela islam', 'henti', 'level', 'anggota', 'lapang']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16300</v>
+        <v>27067</v>
       </c>
       <c r="C56" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt fpi posko kemanusiaan front persaudaraan islam di jl cipinang melayu dibubarkan polisi karena ada tulisan fpi aneh yg dilarang</t>
+          <t>bareskrim polri akan melaksanakan gelar perkara terkait unlawful killingdalam kasus penembakan terhadap anggota la</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'fpi', 'posko', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'di', 'jl', 'cipinang', 'melayu', 'dibubarkan', 'polisi', 'karena', 'ada', 'tulisan', 'fpi', 'aneh', 'yg', 'dilarang']</t>
+          <t>['bareskrim', 'polri', 'akan', 'melaksanakan', 'gelar', 'perkara', 'terkait', 'unlawful', 'killingdalam', 'kasus', 'penembakan', 'terhadap', 'anggota', 'la']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['badan, reserse, kriminal', 'kepolisian, republik, indonesia', 'akan', 'melaksanakan', 'gelar', 'perkara', 'terkait', 'unlawful', 'killingdalam', 'kasus', 'penembakan', 'terhadap', 'anggota', 'lah']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['fpi', 'posko', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'jl', 'cipinang', 'melayu', 'dibubarkan', 'polisi', 'tulisan', 'fpi', 'aneh', 'dilarang']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['fpi', 'posko', 'manusia', 'front', 'saudara', 'islam', 'jl', 'cipinang', 'melayu', 'bubar', 'polisi', 'tulis', 'fpi', 'aneh', 'larang']</t>
+          <t>['badan, reserse, kriminal', 'kepolisian, republik, indonesia', 'melaksanakan', 'gelar', 'perkara', 'terkait', 'unlawful', 'killingdalam', 'penembakan', 'anggota']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['badan reserse kriminal', 'polisi republik indonesia', 'laksana', 'gelar', 'perkara', 'kait', 'unlawful', 'killingdalam', 'tembak', 'anggota']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16301</v>
+        <v>27068</v>
       </c>
       <c r="C57" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt ahmadiyah masih eksis meski langgar fatwa mui</t>
+          <t xml:space="preserve">kita semua tidak berharap kasus harun masiku yang hilang atau dihilangkan tidak terjadi pada pelaku sebenarnya </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'ahmadiyah', 'masih', 'eksis', 'meski', 'langgar', 'fatwa', 'mui']</t>
+          <t>['kita', 'semua', 'tidak', 'berharap', 'kasus', 'harun', 'masiku', 'yang', 'hilang', 'atau', 'dihilangkan', 'tidak', 'terjadi', 'pada', 'pelaku', 'sebenarnya']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kita', 'semua', 'tidak', 'berharap', 'kasus', 'harun', 'masiku', 'yang', 'hilang', 'atau', 'dihilangkan', 'tidak', 'terjadi', 'pada', 'pelaku', 'sebenarnya']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['ahmadiyah', 'eksis', 'langgar', 'fatwa', 'mui']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['ahmadiyah', 'eks', 'langgar', 'fatwa', 'mui']</t>
+          <t>['berharap', 'harun', 'masiku', 'hilang', 'dihilangkan', 'pelaku']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['harap', 'harun', 'mas', 'hilang', 'hilang', 'laku']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16302</v>
+        <v>27069</v>
       </c>
       <c r="C58" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>relawan bidang kemanusiaan front persaudaraan islam fpi mendirikan dapur umum dan membagikan makanan untuk korban</t>
+          <t>rt pendeta gomar gultom usik pendidikan agama islam mmi sejalan dengan pandangan komunis atau pki</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'dapur', 'umum', 'dan', 'membagikan', 'makanan', 'untuk', 'korban']</t>
+          <t>['rt', 'pendeta', 'gomar', 'gultom', 'usik', 'pendidikan', 'agama', 'islam', 'mmi', 'sejalan', 'dengan', 'pandangan', 'komunis', 'atau', 'pki']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'pendeta', 'gomar', 'gultom', 'usik', 'pendidikan', 'agama', 'islam', 'mmi', 'sejalan', 'dengan', 'pandangan', 'komunis', 'atau', 'partai, komunis, indonesia']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'dapur', 'membagikan', 'makanan', 'korban']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'diri', 'dapur', 'bagi', 'makan', 'korban']</t>
+          <t>['pendeta', 'gomar', 'gultom', 'usik', 'pendidikan', 'agama', 'islam', 'mmi', 'sejalan', 'pandangan', 'komunis', 'partai, komunis, indonesia']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['pendeta', 'gomar', 'gultom', 'usik', 'didik', 'agama', 'islam', 'mmi', 'jalan', 'pandang', 'komunis', 'partai komunis indonesia']</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16303</v>
+        <v>27070</v>
       </c>
       <c r="C59" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ylbhi pernyataan jokowi tidak terbukti bahwa obat klorokuin dapat menyembuhkan corona kalau jokowi bukan preside</t>
+          <t>mahkamah agung ma menolak gugatan pt jaladri kartika pakci di tingkat peninjauan kembali pk alhasil keputusan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['ylbhi', 'pernyataan', 'jokowi', 'tidak', 'terbukti', 'bahwa', 'obat', 'klorokuin', 'dapat', 'menyembuhkan', 'corona', 'kalau', 'jokowi', 'bukan', 'preside']</t>
+          <t>['mahkamah', 'agung', 'ma', 'menolak', 'gugatan', 'pt', 'jaladri', 'kartika', 'pakci', 'di', 'tingkat', 'peninjauan', 'kembali', 'pk', 'alhasil', 'keputusan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['mahkamah', 'agung', 'sama', 'menolak', 'gugatan', 'pt', 'jaladri', 'kartika', 'pakci', 'di', 'tingkat', 'peninjauan', 'kembali', 'pak', 'alhasil', 'keputusan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['ylbhi', 'pernyataan', 'jokowi', 'terbukti', 'obat', 'klorokuin', 'menyembuhkan', 'corona', 'jokowi', 'preside']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ylbhi', 'nyata', 'jokowi', 'bukti', 'obat', 'klorokuin', 'sembuh', 'corona', 'jokowi', 'preside']</t>
+          <t>['mahkamah', 'agung', 'menolak', 'gugatan', 'pt', 'jaladri', 'kartika', 'pakci', 'tingkat', 'peninjauan', 'alhasil', 'keputusan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['mahkamah', 'agung', 'tolak', 'gugat', 'pt', 'jaladri', 'kartika', 'pakci', 'tingkat', 'tinjau', 'alhasil', 'putus']</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16304</v>
+        <v>27071</v>
       </c>
       <c r="C60" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>fpi masih terus bergerak membagikan paket sembako dan alat sholat untuk korban bencana gempa bumi di mamuju dan sek</t>
+          <t>bertemu jokowi tp kami minta agar para pelaku pembunuhan teehadap laskar fpi diadili dan dihukum secara adil</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['fpi', 'masih', 'terus', 'bergerak', 'membagikan', 'paket', 'sembako', 'dan', 'alat', 'sholat', 'untuk', 'korban', 'bencana', 'gempa', 'bumi', 'di', 'mamuju', 'dan', 'sek']</t>
+          <t>['bertemu', 'jokowi', 'tp', 'kami', 'minta', 'agar', 'para', 'pelaku', 'pembunuhan', 'teehadap', 'laskar', 'fpi', 'diadili', 'dan', 'dihukum', 'secara', 'adil']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['bertemu', 'jokowi', 'tetapi', 'kami', 'meminta', 'agar', 'para', 'pelaku', 'pembunuhan', 'teehadap', 'laskar', 'front, pembela, islam', 'diadili', 'dan', 'dihukum', 'secara', 'adil']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['fpi', 'bergerak', 'membagikan', 'paket', 'sembako', 'alat', 'sholat', 'korban', 'bencana', 'gempa', 'bumi', 'mamuju', 'sek']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['fpi', 'gerak', 'bagi', 'paket', 'sembako', 'alat', 'sholat', 'korban', 'bencana', 'gempa', 'bumi', 'mamuju', 'sek']</t>
+          <t>['bertemu', 'jokowi', 'pelaku', 'pembunuhan', 'teehadap', 'laskar', 'front, pembela, islam', 'diadili', 'dihukum', 'adil']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['temu', 'jokowi', 'laku', 'bunuh', 'teehadap', 'laskar', 'front bela islam', 'adil', 'hukum', 'adil']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16305</v>
+        <v>27072</v>
       </c>
       <c r="C61" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt  hui mosque being attacked by regime do you still want to support china and abandon</t>
+          <t xml:space="preserve">front persaudaraan islam membangun hunian sementara huntara di pegunungan meratus yang merupakan wilayah hunian </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'hui', 'mosque', 'being', 'attacked', 'by', 'regime', 'do', 'you', 'still', 'want', 'to', 'support', 'china', 'and', 'abandon']</t>
+          <t>['front', 'persaudaraan', 'islam', 'membangun', 'hunian', 'sementara', 'huntara', 'di', 'pegunungan', 'meratus', 'yang', 'merupakan', 'wilayah', 'hunian']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['front', 'persaudaraan', 'islam', 'membangun', 'hunian', 'sementara', 'huntara', 'di', 'pegunungan', 'meratus', 'yang', 'merupakan', 'wilayah', 'hunian']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['hui', 'mosque', 'being', 'attacked', 'by', 'regime', 'do', 'you', 'still', 'want', 'to', 'support', 'china', 'and', 'abandon']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['hui', 'mosque', 'being', 'attacked', 'by', 'regime', 'do', 'you', 'still', 'want', 'to', 'support', 'china', 'and', 'abandon']</t>
+          <t>['front', 'persaudaraan', 'islam', 'membangun', 'hunian', 'huntara', 'pegunungan', 'meratus', 'wilayah', 'hunian']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['front', 'saudara', 'islam', 'bangun', 'huni', 'huntara', 'gunung', 'ratus', 'wilayah', 'huni']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16306</v>
+        <v>27073</v>
       </c>
       <c r="C62" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt moa mas laksono dua hari ini banjir karawang beda dima yang terparah di wilayah pegunungan daerah pangkalan dan telukjamb</t>
+          <t>sebulan pasca gempa relawan front persaudaraan islammembangun beberapa unit huntara atau hunian sementara di seju</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'moa', 'mas', 'laksono', 'dua', 'hari', 'ini', 'banjir', 'karawang', 'beda', 'dima', 'yang', 'terparah', 'di', 'wilayah', 'pegunungan', 'daerah', 'pangkalan', 'dan', 'telukjamb']</t>
+          <t>['sebulan', 'pasca', 'gempa', 'relawan', 'front', 'persaudaraan', 'islammembangun', 'beberapa', 'unit', 'huntara', 'atau', 'hunian', 'sementara', 'di', 'seju']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['sebulan', 'pasca', 'gempa', 'relawan', 'front', 'persaudaraan', 'islammembangun', 'beberapa', 'unit', 'huntara', 'atau', 'hunian', 'sementara', 'di', 'seju']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['moa', 'mas', 'laksono', 'banjir', 'karawang', 'beda', 'dima', 'terparah', 'wilayah', 'pegunungan', 'daerah', 'pangkalan', 'telukjamb']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['moa', 'mas', 'laksono', 'banjir', 'karawang', 'beda', 'dima', 'parah', 'wilayah', 'gunung', 'daerah', 'pangkal', 'telukjamb']</t>
+          <t>['sebulan', 'pasca', 'gempa', 'relawan', 'front', 'persaudaraan', 'islammembangun', 'unit', 'huntara', 'hunian', 'seju']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['bulan', 'pasca', 'gempa', 'rawan', 'front', 'saudara', 'islammembangun', 'unit', 'huntara', 'huni', 'seju']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16307</v>
+        <v>27074</v>
       </c>
       <c r="C63" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt kacau ini mou pertama china dgn negara asing bhahahakarena proyek ini ditolak di as eropa singapura juga menolak amp</t>
+          <t>rt guru agama ancam mogok mengajar tuntut formasi di pppk</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'kacau', 'ini', 'mou', 'pertama', 'china', 'dgn', 'negara', 'asing', 'bhahahakarena', 'proyek', 'ini', 'ditolak', 'di', 'as', 'eropa', 'singapura', 'juga', 'menolak', 'amp']</t>
+          <t>['rt', 'guru', 'agama', 'ancam', 'mogok', 'mengajar', 'tuntut', 'formasi', 'di', 'pppk']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'guru', 'agama', 'ancam', 'mogok', 'mengajar', 'tuntut', 'formasi', 'di', 'pppk']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['kacau', 'mou', 'china', 'negara', 'asing', 'bhahahakarena', 'proyek', 'ditolak', 'as', 'eropa', 'singapura', 'menolak']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['kacau', 'mou', 'china', 'negara', 'asing', 'bhahahakarena', 'proyek', 'tolak', 'as', 'eropa', 'singapura', 'tolak']</t>
+          <t>['guru', 'agama', 'ancam', 'mogok', 'mengajar', 'tuntut', 'formasi', 'pppk']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['guru', 'agama', 'ancam', 'mogok', 'ajar', 'tuntut', 'formasi', 'pppk']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16308</v>
+        <v>27075</v>
       </c>
       <c r="C64" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>selama hari relawan kemanusiaan front persaudaraan islam atau fpi terus bergerak membantu warga terdampak banjir</t>
+          <t>asosiasi guru agama peta jalan pendidikan tanpa frasa agama tidak akan melahirkan manusia yang mampu melakukan apr</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['selama', 'hari', 'relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'atau', 'fpi', 'terus', 'bergerak', 'membantu', 'warga', 'terdampak', 'banjir']</t>
+          <t>['asosiasi', 'guru', 'agama', 'peta', 'jalan', 'pendidikan', 'tanpa', 'frasa', 'agama', 'tidak', 'akan', 'melahirkan', 'manusia', 'yang', 'mampu', 'melakukan', 'apr']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['asosiasi', 'guru', 'agama', 'peta', 'jalan', 'pendidikan', 'tanpa', 'frasa', 'agama', 'tidak', 'akan', 'melahirkan', 'manusia', 'yang', 'mampu', 'melakukan', 'apr']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['relawan', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'fpi', 'bergerak', 'membantu', 'warga', 'terdampak', 'banjir']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['rawan', 'manusia', 'front', 'saudara', 'islam', 'fpi', 'gerak', 'bantu', 'warga', 'dampak', 'banjir']</t>
+          <t>['asosiasi', 'guru', 'agama', 'peta', 'jalan', 'pendidikan', 'frasa', 'agama', 'melahirkan', 'manusia', 'apr']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['asosiasi', 'guru', 'agama', 'peta', 'jalan', 'didik', 'frasa', 'agama', 'lahir', 'manusia', 'apr']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16309</v>
+        <v>27076</v>
       </c>
       <c r="C65" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>relawan bidang kemanusian front persaudaraan islam fpi membagikan nasi serta melakukan evakuasi korban banjir di</t>
+          <t>tidak adanya kata agama dalam draf peta jalan pendidikan dinilai sebagai bentuk nyata dari sekularisasi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusian', 'front', 'persaudaraan', 'islam', 'fpi', 'membagikan', 'nasi', 'serta', 'melakukan', 'evakuasi', 'korban', 'banjir', 'di']</t>
+          <t>['tidak', 'adanya', 'kata', 'agama', 'dalam', 'draf', 'peta', 'jalan', 'pendidikan', 'dinilai', 'sebagai', 'bentuk', 'nyata', 'dari', 'sekularisasi']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['tidak', 'adanya', 'kata', 'agama', 'dalam', 'draf', 'peta', 'jalan', 'pendidikan', 'dinilai', 'sebagai', 'bentuk', 'nyata', 'dari', 'sekularisasi']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['relawan', 'bidang', 'kemanusian', 'front', 'persaudaraan', 'islam', 'fpi', 'membagikan', 'nasi', 'evakuasi', 'korban', 'banjir']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'kemanusian', 'front', 'saudara', 'islam', 'fpi', 'bagi', 'nasi', 'evakuasi', 'korban', 'banjir']</t>
+          <t>['agama', 'draf', 'peta', 'jalan', 'pendidikan', 'dinilai', 'bentuk', 'nyata', 'sekularisasi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['agama', 'draf', 'peta', 'jalan', 'didik', 'nilai', 'bentuk', 'nyata', 'sekularisasi']</t>
         </is>
       </c>
     </row>
@@ -2775,30 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16310</v>
+        <v>27077</v>
       </c>
       <c r="C66" t="n">
-        <v>204</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>320</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>terkait tidak adanya frasa agama ini mui akan berkirim surat kepada kementerian pendidikan dan kebudayaan kemdikbu</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['terkait', 'tidak', 'adanya', 'frasa', 'agama', 'ini', 'mui', 'akan', 'berkirim', 'surat', 'kepada', 'kementerian', 'pendidikan', 'dan', 'kebudayaan', 'kemdikbu']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['terkait', 'tidak', 'adanya', 'frasa', 'agama', 'ini', 'majelis, ulama, indonesia', 'akan', 'berkirim', 'surat', 'kepada', 'kementerian', 'pendidikan', 'dan', 'kebudayaan', 'kemdikbu']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['terkait', 'frasa', 'agama', 'majelis, ulama, indonesia', 'berkirim', 'surat', 'kementerian', 'pendidikan', 'kebudayaan', 'kemdikbu']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['kait', 'frasa', 'agama', 'majelis ulama indonesia', 'kirim', 'surat', 'menteri', 'didik', 'budaya', 'kemdikbu']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16311</v>
+        <v>27078</v>
       </c>
       <c r="C67" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt amnesty international meminta jokowi membebaskan seluruh korban kriminalisasi uu ite banyak di antaranya dituduh melanggar uu</t>
+          <t>rt salah satu peserta klb demokrat gerald piter mengaku dijanjikan terima rp juta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'amnesty', 'international', 'meminta', 'jokowi', 'membebaskan', 'seluruh', 'korban', 'kriminalisasi', 'uu', 'ite', 'banyak', 'di', 'antaranya', 'dituduh', 'melanggar', 'uu']</t>
+          <t>['rt', 'salah', 'satu', 'peserta', 'klb', 'demokrat', 'gerald', 'piter', 'mengaku', 'dijanjikan', 'terima', 'rp', 'juta']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'salah', 'satu', 'peserta', 'klb', 'demokrat', 'gerald', 'piter', 'mengaku', 'dijanjikan', 'terima', 'rupiah', 'juta']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['amnesty', 'international', 'jokowi', 'membebaskan', 'korban', 'kriminalisasi', 'uu', 'ite', 'dituduh', 'melanggar', 'uu']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['amnesty', 'international', 'jokowi', 'bebas', 'korban', 'kriminalisasi', 'uu', 'ite', 'tuduh', 'langgar', 'uu']</t>
+          <t>['salah', 'peserta', 'klb', 'demokrat', 'gerald', 'piter', 'mengaku', 'dijanjikan', 'terima', 'rupiah', 'juta']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['salah', 'serta', 'klb', 'demokrat', 'gerald', 'piter', 'aku', 'janji', 'terima', 'rupiah', 'juta']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16312</v>
+        <v>27079</v>
       </c>
       <c r="C68" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>lokataru pasal dan uu ite banyak dipakai untuk mempidanakan orang tanpa bukti yang baik tidak cocok dengan</t>
+          <t>rt guru agama tidak masuk rekruitmen guru kemdikbud merupakan ketidakadilan bagi gpa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['lokataru', 'pasal', 'dan', 'uu', 'ite', 'banyak', 'dipakai', 'untuk', 'mempidanakan', 'orang', 'tanpa', 'bukti', 'yang', 'baik', 'tidak', 'cocok', 'dengan']</t>
+          <t>['rt', 'guru', 'agama', 'tidak', 'masuk', 'rekruitmen', 'guru', 'kemdikbud', 'merupakan', 'ketidakadilan', 'bagi', 'gpa']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'guru', 'agama', 'tidak', 'masuk', 'rekruitmen', 'guru', 'kemdikbud', 'merupakan', 'ke, tidak, adilan', 'bagi', 'gpa']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['lokataru', 'pasal', 'uu', 'ite', 'dipakai', 'mempidanakan', 'orang', 'bukti', 'cocok']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['lokataru', 'pasal', 'uu', 'ite', 'pakai', 'pidana', 'orang', 'bukti', 'cocok']</t>
+          <t>['guru', 'agama', 'masuk', 'rekruitmen', 'guru', 'kemdikbud', 'ke, tidak, adilan', 'gpa']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['guru', 'agama', 'masuk', 'rekruitmen', 'guru', 'kemdikbud', 'ke tidak adil', 'gpa']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16313</v>
+        <v>27080</v>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt kontak tembak antara aparat tnipolri dan kelompok kriminal bersenjata kkb terjadi di sekitar runway landasan pacu banda</t>
+          <t>kuasa hukum pengusutan kasus pembunuhan laskar fpi jangan berhenti di level anggota lapangan tetapi juga pimpi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'kontak', 'tembak', 'antara', 'aparat', 'tnipolri', 'dan', 'kelompok', 'kriminal', 'bersenjata', 'kkb', 'terjadi', 'di', 'sekitar', 'runway', 'landasan', 'pacu', 'banda']</t>
+          <t>['kuasa', 'hukum', 'pengusutan', 'kasus', 'pembunuhan', 'laskar', 'fpi', 'jangan', 'berhenti', 'di', 'level', 'anggota', 'lapangan', 'tetapi', 'juga', 'pimpi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['kuasa', 'hukum', 'pengusutan', 'kasus', 'pembunuhan', 'laskar', 'front, pembela, islam', 'jangan', 'berhenti', 'di', 'level', 'anggota', 'lapangan', 'tetapi', 'juga', 'pimpi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['kontak', 'tembak', 'aparat', 'tnipolri', 'kelompok', 'kriminal', 'bersenjata', 'kkb', 'runway', 'landasan', 'pacu', 'banda']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['kontak', 'tembak', 'aparat', 'tnipolri', 'kelompok', 'kriminal', 'senjata', 'kkb', 'runway', 'landas', 'pacu', 'banda']</t>
+          <t>['kuasa', 'hukum', 'pengusutan', 'pembunuhan', 'laskar', 'front, pembela, islam', 'berhenti', 'level', 'anggota', 'lapangan', 'pimpi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kuasa', 'hukum', 'usut', 'bunuh', 'laskar', 'front bela islam', 'henti', 'level', 'anggota', 'lapang', 'pimpi']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16314</v>
+        <v>27081</v>
       </c>
       <c r="C70" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>bentrok senjata antara pasukan tni dengan kelompok terorisopm papuakembali pecah kali ini terjadi di bandara ami</t>
+          <t xml:space="preserve">relawan front persaudaraan islam bergerak cepat menyalurkan bantuan berupa sembako dan sejumlah uang tunai kepada </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['bentrok', 'senjata', 'antara', 'pasukan', 'tni', 'dengan', 'kelompok', 'terorisopm', 'papuakembali', 'pecah', 'kali', 'ini', 'terjadi', 'di', 'bandara', 'ami']</t>
+          <t>['relawan', 'front', 'persaudaraan', 'islam', 'bergerak', 'cepat', 'menyalurkan', 'bantuan', 'berupa', 'sembako', 'dan', 'sejumlah', 'uang', 'tunai', 'kepada']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['relawan', 'front', 'persaudaraan', 'islam', 'bergerak', 'cepat', 'menyalurkan', 'bantuan', 'berupa', 'sembako', 'dan', 'sejumlah', 'uang', 'tunai', 'kepada']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['bentrok', 'senjata', 'pasukan', 'tni', 'kelompok', 'terorisopm', 'papuakembali', 'pecah', 'kali', 'bandara', 'ami']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['bentrok', 'senjata', 'pasu', 'tni', 'kelompok', 'terorisopm', 'papuakembali', 'pecah', 'kali', 'bandara', 'ami']</t>
+          <t>['relawan', 'front', 'persaudaraan', 'islam', 'bergerak', 'cepat', 'menyalurkan', 'bantuan', 'sembako', 'uang', 'tunai']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['rawan', 'front', 'saudara', 'islam', 'gerak', 'cepat', 'salur', 'bantu', 'sembako', 'uang', 'tunai']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16315</v>
+        <v>27082</v>
       </c>
       <c r="C71" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt bikin uu cipta kerja untuk gaet investasi tapi malah lemahkan berbagai peraturan lingkungan nyatanya banyak investor dun</t>
+          <t>rt new post ketum pbnu bukan agamanya martabat bangsa dihargai karena budayanya bagus</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'bikin', 'uu', 'cipta', 'kerja', 'untuk', 'gaet', 'investasi', 'tapi', 'malah', 'lemahkan', 'berbagai', 'peraturan', 'lingkungan', 'nyatanya', 'banyak', 'investor', 'dun']</t>
+          <t>['rt', 'new', 'post', 'ketum', 'pbnu', 'bukan', 'agamanya', 'martabat', 'bangsa', 'dihargai', 'karena', 'budayanya', 'bagus']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'new', 'post', 'ketua, umum', 'pengurus, besar, nahdlatul, ulama', 'bukan', 'agamanya', 'martabat', 'bangsa', 'dihargai', 'karena', 'budayanya', 'bagus']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['uu', 'cipta', 'kerja', 'gaet', 'investasi', 'lemahkan', 'peraturan', 'lingkungan', 'investor', 'dun']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['uu', 'cipta', 'kerja', 'gaet', 'investasi', 'lemah', 'atur', 'lingkung', 'investor', 'dun']</t>
+          <t>['new', 'post', 'ketua, umum', 'pengurus, besar, nahdlatul, ulama', 'agamanya', 'martabat', 'bangsa', 'dihargai', 'budayanya', 'bagus']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['new', 'post', 'ketua umum', 'urus besar nahdlatul ulama', 'agama', 'martabat', 'bangsa', 'harga', 'budaya', 'bagus']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16316</v>
+        <v>27083</v>
       </c>
       <c r="C72" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt tuh dengerin ya khusus warga jangan menebang hutan</t>
+          <t>rt abu janda berkeliaran pelapornya malah dipecat dari jabatan</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'tuh', 'dengerin', 'ya', 'khusus', 'warga', 'jangan', 'menebang', 'hutan']</t>
+          <t>['rt', 'abu', 'janda', 'berkeliaran', 'pelapornya', 'malah', 'dipecat', 'dari', 'jabatan']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['rt', 'abu', 'janda', 'berkeliaran', 'pelapornya', 'malah', 'dipecat', 'dari', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['dengerin', 'khusus', 'warga', 'menebang', 'hutan']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['dengerin', 'khusus', 'warga', 'tebang', 'hutan']</t>
+          <t>['abu', 'janda', 'berkeliaran', 'pelapornya', 'dipecat', 'jabatan']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['abu', 'janda', 'liar', 'lapor', 'pecat', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16317</v>
+        <v>27084</v>
       </c>
       <c r="C73" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt nah warga nggak boleh nebang kalau perusahaan boleh pak</t>
+          <t>gubernur anies baswedan terima penghargaan dari kemendagri karya bhakti peduli satpol pp penghargaan tersebut se</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'nah', 'warga', 'nggak', 'boleh', 'nebang', 'kalau', 'perusahaan', 'boleh', 'pak']</t>
+          <t>['gubernur', 'anies', 'baswedan', 'terima', 'penghargaan', 'dari', 'kemendagri', 'karya', 'bhakti', 'peduli', 'satpol', 'pp', 'penghargaan', 'tersebut', 'se']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['gubernur', 'anies', 'baswedan', 'terima', 'penghargaan', 'dari', 'kementerian, dalam, negeri', 'karya', 'bhakti', 'peduli', 'satuan, polisi', 'pp', 'penghargaan', 'tersebut', 'se']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['warga', 'nggak', 'nebang', 'perusahaan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['warga', 'nggak', 'nebang', 'usaha']</t>
+          <t>['gubernur', 'anies', 'baswedan', 'terima', 'penghargaan', 'kementerian, dalam, negeri', 'karya', 'bhakti', 'peduli', 'satuan, polisi', 'pp', 'penghargaan']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['gubernur', 'anies', 'baswedan', 'terima', 'harga', 'menteri dalam negeri', 'karya', 'bhakti', 'peduli', 'satu polisi', 'pp', 'harga']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16318</v>
+        <v>27085</v>
       </c>
       <c r="C74" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt ramai foto gede pangrango tempelan sang fotografer kasih bukti</t>
+          <t>pa propam dan kompolnas harus memanggil penyidik serta penanggungjawab lapangan yaknikapolda metro jaya dal</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'ramai', 'foto', 'gede', 'pangrango', 'tempelan', 'sang', 'fotografer', 'kasih', 'bukti']</t>
+          <t>['pa', 'propam', 'dan', 'kompolnas', 'harus', 'memanggil', 'penyidik', 'serta', 'penanggungjawab', 'lapangan', 'yaknikapolda', 'metro', 'jaya', 'dal']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['pak', 'propam', 'dan', 'kompolnas', 'harus', 'memanggil', 'penyidik', 'serta', 'penanggungjawab', 'lapangan', 'yaknikapolda', 'metro', 'jaya', 'dal']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['ramai', 'foto', 'gede', 'pangrango', 'tempelan', 'sang', 'fotografer', 'kasih', 'bukti']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['ramai', 'foto', 'gede', 'pangrango', 'tempel', 'sang', 'fotografer', 'kasih', 'bukti']</t>
+          <t>['propam', 'kompolnas', 'memanggil', 'penyidik', 'penanggungjawab', 'lapangan', 'yaknikapolda', 'metro', 'jaya', 'dal']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['propam', 'kompolnas', 'panggil', 'sidik', 'penanggungjawab', 'lapang', 'yaknikapolda', 'metro', 'jaya', 'dal']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16319</v>
+        <v>27086</v>
       </c>
       <c r="C75" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt ramai foto gunung gede pangrango yang tampak jelas dari jakarta dikritik tempelan sang fotografer beri penjelasan apa kata</t>
+          <t>polisimenggunakan pasal pembunuhan dan penganiayaan dalam penyelidikan unlawful killing pembunuhan di luar hukum</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'ramai', 'foto', 'gunung', 'gede', 'pangrango', 'yang', 'tampak', 'jelas', 'dari', 'jakarta', 'dikritik', 'tempelan', 'sang', 'fotografer', 'beri', 'penjelasan', 'apa', 'kata']</t>
+          <t>['polisimenggunakan', 'pasal', 'pembunuhan', 'dan', 'penganiayaan', 'dalam', 'penyelidikan', 'unlawful', 'killing', 'pembunuhan', 'di', 'luar', 'hukum']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['polisimenggunakan', 'pasal', 'pembunuhan', 'dan', 'penganiayaan', 'dalam', 'penyelidikan', 'unlawful', 'killing', 'pembunuhan', 'di', 'luar', 'hukum']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['ramai', 'foto', 'gunung', 'gede', 'pangrango', 'jakarta', 'dikritik', 'tempelan', 'sang', 'fotografer', 'penjelasan']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['ramai', 'foto', 'gunung', 'gede', 'pangrango', 'jakarta', 'kritik', 'tempel', 'sang', 'fotografer', 'jelas']</t>
+          <t>['polisimenggunakan', 'pasal', 'pembunuhan', 'penganiayaan', 'penyelidikan', 'unlawful', 'killing', 'pembunuhan', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['polisimenggunakan', 'pasal', 'bunuh', 'aniaya', 'lidi', 'unlawful', 'killing', 'bunuh', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16320</v>
+        <v>27087</v>
       </c>
       <c r="C76" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt rencana presiden joko widodo merevisi undangundang informasi dan transaksi elektronik baru sebatas janji alihalih melaku</t>
+          <t>polri resmi menutup kasus dugaan penyerangan terhadap anggota polisi oleh enam laskar front pembela islam fpi po</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'rencana', 'presiden', 'joko', 'widodo', 'merevisi', 'undangundang', 'informasi', 'dan', 'transaksi', 'elektronik', 'baru', 'sebatas', 'janji', 'alihalih', 'melaku']</t>
+          <t>['polri', 'resmi', 'menutup', 'kasus', 'dugaan', 'penyerangan', 'terhadap', 'anggota', 'polisi', 'oleh', 'enam', 'laskar', 'front', 'pembela', 'islam', 'fpi', 'po']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kepolisian, republik, indonesia', 'resmi', 'menutup', 'kasus', 'dugaan', 'penyerangan', 'terhadap', 'anggota', 'polisi', 'oleh', 'enam', 'laskar', 'front', 'pembela', 'islam', 'front, pembela, islam', 'po']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['rencana', 'presiden', 'joko', 'widodo', 'merevisi', 'undangundang', 'informasi', 'transaksi', 'elektronik', 'sebatas', 'janji', 'alihalih', 'melaku']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['rencana', 'presiden', 'joko', 'widodo', 'revisi', 'undangundang', 'informasi', 'transaksi', 'elektronik', 'batas', 'janji', 'alihalih', 'laku']</t>
+          <t>['kepolisian, republik, indonesia', 'resmi', 'menutup', 'dugaan', 'penyerangan', 'anggota', 'polisi', 'enam', 'laskar', 'front', 'pembela', 'islam', 'front, pembela, islam', 'po']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'resmi', 'tutup', 'duga', 'serang', 'anggota', 'polisi', 'enam', 'laskar', 'front', 'bela', 'islam', 'front bela islam', 'po']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16321</v>
+        <v>27088</v>
       </c>
       <c r="C77" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>safenet terdapat pola pemidanaan dari laporan dengan mencantumkan aturan di uu ite yakni balas dendam membungka</t>
+          <t xml:space="preserve">tp presiden jokowi telah menunjukkan sikap yang tidak berkenan dan tidak mampu atau unwilling and unable untuk </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['safenet', 'terdapat', 'pola', 'pemidanaan', 'dari', 'laporan', 'dengan', 'mencantumkan', 'aturan', 'di', 'uu', 'ite', 'yakni', 'balas', 'dendam', 'membungka']</t>
+          <t>['tp', 'presiden', 'jokowi', 'telah', 'menunjukkan', 'sikap', 'yang', 'tidak', 'berkenan', 'dan', 'tidak', 'mampu', 'atau', 'unwilling', 'and', 'unable', 'untuk']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['tetapi', 'presiden', 'jokowi', 'telah', 'menunjukkan', 'sikap', 'yang', 'tidak', 'berkenan', 'dan', 'tidak', 'mampu', 'atau', 'unwilling', 'and', 'unable', 'untuk']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['safenet', 'pola', 'pemidanaan', 'laporan', 'mencantumkan', 'aturan', 'uu', 'ite', 'balas', 'dendam', 'membungka']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['safenet', 'pola', 'pidana', 'lapor', 'cantum', 'atur', 'uu', 'ite', 'balas', 'dendam', 'membungka']</t>
+          <t>['presiden', 'jokowi', 'sikap', 'berkenan', 'unwilling', 'and', 'unable']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['presiden', 'jokowi', 'sikap', 'kenan', 'unwilling', 'and', 'unable']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16322</v>
+        <v>27089</v>
       </c>
       <c r="C78" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>lokataru negara masih memiliki banyak perangkat hukum selain uu ite yang dapat digunakan untuk membungkam masyarak</t>
+          <t>rt polri sudah menyelidiki laporan hasil pemeriksaaan ppatk terhadap rekening milik fpi sejauh ini tidak didapati adanya unsur</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['lokataru', 'negara', 'masih', 'memiliki', 'banyak', 'perangkat', 'hukum', 'selain', 'uu', 'ite', 'yang', 'dapat', 'digunakan', 'untuk', 'membungkam', 'masyarak']</t>
+          <t>['rt', 'polri', 'sudah', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'terhadap', 'rekening', 'milik', 'fpi', 'sejauh', 'ini', 'tidak', 'didapati', 'adanya', 'unsur']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'kepolisian, republik, indonesia', 'sudah', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'terhadap', 'rekening', 'milik', 'front, pembela, islam', 'sejauh', 'ini', 'tidak', 'didapati', 'adanya', 'unsur']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['lokataru', 'negara', 'memiliki', 'perangkat', 'hukum', 'uu', 'ite', 'membungkam', 'masyarak']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['lokataru', 'negara', 'milik', 'perangkat', 'hukum', 'uu', 'ite', 'bungkam', 'masyarak']</t>
+          <t>['kepolisian, republik, indonesia', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'rekening', 'milik', 'front, pembela, islam', 'didapati', 'unsur']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'selidik', 'lapor', 'hasil', 'pemeriksaaan', 'ppatk', 'rekening', 'milik', 'front bela islam', 'dapat', 'unsur']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3637,35 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16323</v>
+        <v>27090</v>
       </c>
       <c r="C79" t="n">
-        <v>204</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>rt perpress ekstremisme prof suteki roadmap pelumpuhan umat islam di indonesia</t>
-        </is>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'perpress', 'ekstremisme', 'prof', 'suteki', 'roadmap', 'pelumpuhan', 'umat', 'islam', 'di', 'indonesia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['perpress', 'ekstremisme', 'prof', 'suteki', 'roadmap', 'pelumpuhan', 'umat', 'islam', 'indonesia']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['perpress', 'ekstrem', 'prof', 'suteki', 'roadmap', 'lumpuh', 'umat', 'islam', 'indonesia']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16324</v>
+        <v>27091</v>
       </c>
       <c r="C80" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt para relawan bidang kemanusiaan front persaudaraan islam bk fpi menyalurkan bantuan bagi korban banjir di pesisir sungai bari</t>
+          <t>bukan fpi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'para', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'bk', 'fpi', 'menyalurkan', 'bantuan', 'bagi', 'korban', 'banjir', 'di', 'pesisir', 'sungai', 'bari']</t>
+          <t>['bukan', 'fpi']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['bukan', 'front, pembela, islam']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'bk', 'fpi', 'menyalurkan', 'bantuan', 'korban', 'banjir', 'pesisir', 'sungai', 'bari']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'bk', 'fpi', 'salur', 'bantu', 'korban', 'banjir', 'pesisir', 'sungai', 'bari']</t>
+          <t>['front, pembela, islam']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['front bela islam']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16325</v>
+        <v>27092</v>
       </c>
       <c r="C81" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt relawan front persaudaraan islam fpi mendirikan posko di sekitar lokasi terdampak longsor di dusun selopuro desa ngetos </t>
+          <t>yuk benci produk asing</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'posko', 'di', 'sekitar', 'lokasi', 'terdampak', 'longsor', 'di', 'dusun', 'selopuro', 'desa', 'ngetos']</t>
+          <t>['yuk', 'benci', 'produk', 'asing']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['yuk', 'benci', 'produk', 'asing']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['relawan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'posko', 'lokasi', 'terdampak', 'longsor', 'dusun', 'selopuro', 'desa', 'ngetos']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['rawan', 'front', 'saudara', 'islam', 'fpi', 'diri', 'posko', 'lokasi', 'dampak', 'longsor', 'dusun', 'selopuro', 'desa', 'ngetos']</t>
+          <t>['yuk', 'benci', 'produk', 'asing']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['yuk', 'benci', 'produk', 'asing']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16326</v>
+        <v>27093</v>
       </c>
       <c r="C82" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt pemandangan gunung gede pangrango di kemayoran jakarta pusat pagi ini menandakan kualitas udara sedang bersih jlbeny</t>
+          <t>pakar politik unj jokowi impor berjutajuta vaksin dari luar negeri kendaraan jokowi itu produk luar negeri mot</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'pemandangan', 'gunung', 'gede', 'pangrango', 'di', 'kemayoran', 'jakarta', 'pusat', 'pagi', 'ini', 'menandakan', 'kualitas', 'udara', 'sedang', 'bersih', 'jlbeny']</t>
+          <t>['pakar', 'politik', 'unj', 'jokowi', 'impor', 'berjutajuta', 'vaksin', 'dari', 'luar', 'negeri', 'kendaraan', 'jokowi', 'itu', 'produk', 'luar', 'negeri', 'mot']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pakar', 'politik', 'unj', 'jokowi', 'impor', 'berjutajuta', 'vaksin', 'dari', 'luar', 'negeri', 'kendaraan', 'jokowi', 'itu', 'produk', 'luar', 'negeri', 'mot']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['pemandangan', 'gunung', 'gede', 'pangrango', 'kemayoran', 'jakarta', 'pusat', 'pagi', 'menandakan', 'kualitas', 'udara', 'bersih', 'jlbeny']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['pandang', 'gunung', 'gede', 'pangrango', 'mayor', 'jakarta', 'pusat', 'pagi', 'tanda', 'kualitas', 'udara', 'bersih', 'jlbeny']</t>
+          <t>['pakar', 'politik', 'unj', 'jokowi', 'impor', 'berjutajuta', 'vaksin', 'negeri', 'kendaraan', 'jokowi', 'produk', 'negeri', 'mot']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['pakar', 'politik', 'unj', 'jokowi', 'impor', 'berjutajuta', 'vaksin', 'negeri', 'kendara', 'jokowi', 'produk', 'negeri', 'mot']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16327</v>
+        <v>27094</v>
       </c>
       <c r="C83" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt untuk pertama kali sejak agustus jakarta catat nol kasus kematian covid</t>
+          <t>muhammadiyah menyoroti hilangnya frasa agama dalam peta jalan pendidikan nasional yang dikeluarkan keme</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'untuk', 'pertama', 'kali', 'sejak', 'agustus', 'jakarta', 'catat', 'nol', 'kasus', 'kematian', 'covid']</t>
+          <t>['muhammadiyah', 'menyoroti', 'hilangnya', 'frasa', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasional', 'yang', 'dikeluarkan', 'keme']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['muhammadiyah', 'menyoroti', 'hilangnya', 'frasa', 'agama', 'dalam', 'peta', 'jalan', 'pendidikan', 'nasional', 'yang', 'dikeluarkan', 'keme']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['kali', 'agustus', 'jakarta', 'catat', 'nol', 'kematian', 'covid']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['kali', 'agustus', 'jakarta', 'catat', 'nol', 'mati', 'covid']</t>
+          <t>['muhammadiyah', 'menyoroti', 'hilangnya', 'frasa', 'agama', 'peta', 'jalan', 'pendidikan', 'nasional', 'dikeluarkan', 'keme']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['muhammadiyah', 'sorot', 'hilang', 'frasa', 'agama', 'peta', 'jalan', 'didik', 'nasional', 'keluar', 'keme']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16328</v>
+        <v>27095</v>
       </c>
       <c r="C84" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>walkot pariaman di sumbar ini ada konsep adat basandi syarak syarak basandi kitabullah yang juga harus dihargai</t>
+          <t>rt dua orang tahanan narkoba yang merupakan ayah dan anak masuk islam di rutan mabes polri atas bimbingan habib rizieq</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['walkot', 'pariaman', 'di', 'sumbar', 'ini', 'ada', 'konsep', 'adat', 'basandi', 'syarak', 'syarak', 'basandi', 'kitabullah', 'yang', 'juga', 'harus', 'dihargai']</t>
+          <t>['rt', 'dua', 'orang', 'tahanan', 'narkoba', 'yang', 'merupakan', 'ayah', 'dan', 'anak', 'masuk', 'islam', 'di', 'rutan', 'mabes', 'polri', 'atas', 'bimbingan', 'habib', 'rizieq']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dua', 'orang', 'tahanan', 'narkoba', 'yang', 'merupakan', 'ayah', 'dan', 'anak', 'masuk', 'islam', 'di', 'rumah, tahanan', 'markas, besar', 'kepolisian, republik, indonesia', 'atas', 'bimbingan', 'habib', 'rizieq']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['walkot', 'pariaman', 'sumbar', 'konsep', 'adat', 'basandi', 'syarak', 'syarak', 'basandi', 'kitabullah', 'dihargai']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['walkot', 'pariaman', 'sumbar', 'konsep', 'adat', 'basandi', 'syarak', 'syarak', 'basandi', 'kitabullah', 'harga']</t>
+          <t>['orang', 'tahanan', 'narkoba', 'ayah', 'anak', 'masuk', 'islam', 'rumah, tahanan', 'markas, besar', 'kepolisian, republik, indonesia', 'bimbingan', 'habib', 'rizieq']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['orang', 'tahan', 'narkoba', 'ayah', 'anak', 'masuk', 'islam', 'rumah tahan', 'markas besar', 'polisi republik indonesia', 'bimbing', 'habib', 'rizieq']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16329</v>
+        <v>27096</v>
       </c>
       <c r="C85" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>mui tuduhan terhadap din syamsuddin adalah sebuah gerakan sistematis untuk mendiskreditkan tokoh ulama umat da</t>
+          <t>polri sudah menyelidiki laporan hasil pemeriksaaan ppatk terhadap rekening milik fpi sejauh ini tidak didapati</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['mui', 'tuduhan', 'terhadap', 'din', 'syamsuddin', 'adalah', 'sebuah', 'gerakan', 'sistematis', 'untuk', 'mendiskreditkan', 'tokoh', 'ulama', 'umat', 'da']</t>
+          <t>['polri', 'sudah', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'terhadap', 'rekening', 'milik', 'fpi', 'sejauh', 'ini', 'tidak', 'didapati']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['kepolisian, republik, indonesia', 'sudah', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'terhadap', 'rekening', 'milik', 'front, pembela, islam', 'sejauh', 'ini', 'tidak', 'didapati']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['mui', 'tuduhan', 'din', 'syamsuddin', 'gerakan', 'sistematis', 'mendiskreditkan', 'tokoh', 'ulama', 'umat', 'da']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['mui', 'tuduh', 'din', 'syamsuddin', 'gera', 'sistematis', 'diskredit', 'tokoh', 'ulama', 'umat', 'da']</t>
+          <t>['kepolisian, republik, indonesia', 'menyelidiki', 'laporan', 'hasil', 'pemeriksaaan', 'ppatk', 'rekening', 'milik', 'front, pembela, islam', 'didapati']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['polisi republik indonesia', 'selidik', 'lapor', 'hasil', 'pemeriksaaan', 'ppatk', 'rekening', 'milik', 'front bela islam', 'dapat']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16330</v>
+        <v>27097</v>
       </c>
       <c r="C86" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>para relawan bidang kemanusiaan front persaudaraan islam bk fpi menyalurkan bantuan bagi korban banjir di pesisir</t>
+          <t>rt gubernur dki jakarta anies baswedan tetap bersikukuh akan menjual saham di pt delta djakarta keinginan itu mendapat penolakan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['para', 'relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'bk', 'fpi', 'menyalurkan', 'bantuan', 'bagi', 'korban', 'banjir', 'di', 'pesisir']</t>
+          <t>['rt', 'gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'tetap', 'bersikukuh', 'akan', 'menjual', 'saham', 'di', 'pt', 'delta', 'djakarta', 'keinginan', 'itu', 'mendapat', 'penolakan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'anies', 'baswedan', 'tetap', 'bersikukuh', 'akan', 'menjual', 'saham', 'di', 'pt', 'delta', 'di, jakarta', 'keinginan', 'itu', 'mendapat', 'penolakan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'front', 'persaudaraan', 'islam', 'bk', 'fpi', 'menyalurkan', 'bantuan', 'korban', 'banjir', 'pesisir']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'front', 'saudara', 'islam', 'bk', 'fpi', 'salur', 'bantu', 'korban', 'banjir', 'pesisir']</t>
+          <t>['gubernur', 'daerah, khusus, ibukota', 'jakarta', 'anies', 'baswedan', 'bersikukuh', 'menjual', 'saham', 'pt', 'delta', 'di, jakarta', 'penolakan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['gubernur', 'daerah khusus ibukota', 'jakarta', 'anies', 'baswedan', 'bersikukuh', 'jual', 'saham', 'pt', 'delta', 'di jakarta', 'tolak']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16331</v>
+        <v>27098</v>
       </c>
       <c r="C87" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>relawan front persaudaraan islam fpi mendirikan posko di sekitar lokasi terdampak longsor di dusun selopuro de</t>
+          <t>tiga anggota polda metro jaya yang diduga melakukan pembunuhan di luar hukum atau unlawful killing terhadap laskar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['relawan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'posko', 'di', 'sekitar', 'lokasi', 'terdampak', 'longsor', 'di', 'dusun', 'selopuro', 'de']</t>
+          <t>['tiga', 'anggota', 'polda', 'metro', 'jaya', 'yang', 'diduga', 'melakukan', 'pembunuhan', 'di', 'luar', 'hukum', 'atau', 'unlawful', 'killing', 'terhadap', 'laskar']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tiga', 'anggota', 'kepolisian, daerah', 'metro', 'jaya', 'yang', 'diduga', 'melakukan', 'pembunuhan', 'di', 'luar', 'hukum', 'atau', 'unlawful', 'killing', 'terhadap', 'laskar']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['relawan', 'front', 'persaudaraan', 'islam', 'fpi', 'mendirikan', 'posko', 'lokasi', 'terdampak', 'longsor', 'dusun', 'selopuro', 'de']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['rawan', 'front', 'saudara', 'islam', 'fpi', 'diri', 'posko', 'lokasi', 'dampak', 'longsor', 'dusun', 'selopuro', 'de']</t>
+          <t>['anggota', 'kepolisian, daerah', 'metro', 'jaya', 'diduga', 'pembunuhan', 'hukum', 'unlawful', 'killing', 'laskar']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['anggota', 'polisi daerah', 'metro', 'jaya', 'duga', 'bunuh', 'hukum', 'unlawful', 'killing', 'laskar']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16332</v>
+        <v>27099</v>
       </c>
       <c r="C88" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt more than irish faith leaders have signed  statement condemning  potential genocide against </t>
+          <t>dua orang tahanan narkoba yang merupakan ayah dan anak masuk islam di rutan mabes polri atas bimbingan habib rizieq</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'more', 'than', 'irish', 'faith', 'leaders', 'have', 'signed', 'statement', 'condemning', 'potential', 'genocide', 'against']</t>
+          <t>['dua', 'orang', 'tahanan', 'narkoba', 'yang', 'merupakan', 'ayah', 'dan', 'anak', 'masuk', 'islam', 'di', 'rutan', 'mabes', 'polri', 'atas', 'bimbingan', 'habib', 'rizieq']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dua', 'orang', 'tahanan', 'narkoba', 'yang', 'merupakan', 'ayah', 'dan', 'anak', 'masuk', 'islam', 'di', 'rumah, tahanan', 'markas, besar', 'kepolisian, republik, indonesia', 'atas', 'bimbingan', 'habib', 'rizieq']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['more', 'than', 'irish', 'faith', 'leaders', 'have', 'signed', 'statement', 'condemning', 'potential', 'genocide', 'against']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['more', 'than', 'irish', 'faith', 'leaders', 'have', 'signed', 'statement', 'condemning', 'potential', 'genocide', 'against']</t>
+          <t>['orang', 'tahanan', 'narkoba', 'ayah', 'anak', 'masuk', 'islam', 'rumah, tahanan', 'markas, besar', 'kepolisian, republik, indonesia', 'bimbingan', 'habib', 'rizieq']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['orang', 'tahan', 'narkoba', 'ayah', 'anak', 'masuk', 'islam', 'rumah tahan', 'markas besar', 'polisi republik indonesia', 'bimbing', 'habib', 'rizieq']</t>
         </is>
       </c>
     </row>
@@ -3599,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16333</v>
+        <v>27100</v>
       </c>
       <c r="C89" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt opini dr kholid muslih peneliti syiah dari universitas darussalam gontor tentang masa depan syiah di indonesia setelah ditingg</t>
+          <t>lembaga riset yougov yang berbasis di inggris merilis da</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'opini', 'dr', 'kholid', 'muslih', 'peneliti', 'syiah', 'dari', 'universitas', 'darussalam', 'gontor', 'tentang', 'masa', 'depan', 'syiah', 'di', 'indonesia', 'setelah', 'ditingg']</t>
+          <t>['lembaga', 'riset', 'yougov', 'yang', 'berbasis', 'di', 'inggris', 'merilis', 'da']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['lembaga', 'riset', 'yougov', 'yang', 'berbasis', 'di', 'inggris', 'merilis', 'dan']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['opini', 'dr', 'kholid', 'muslih', 'peneliti', 'syiah', 'universitas', 'darussalam', 'gontor', 'syiah', 'indonesia', 'ditingg']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['opini', 'dr', 'kholid', 'muslih', 'teliti', 'syiah', 'universitas', 'darussalam', 'gontor', 'syiah', 'indonesia', 'ditingg']</t>
+          <t>['lembaga', 'riset', 'yougov', 'berbasis', 'inggris', 'merilis']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['lembaga', 'riset', 'yougov', 'bas', 'inggris', 'rilis']</t>
         </is>
       </c>
     </row>
@@ -3635,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16334</v>
+        <v>27101</v>
       </c>
       <c r="C90" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt relawan bidang kemanusiaan secara rutin turun ke lapangan untuk mendata dan memverifikasi masyarakat </t>
+          <t>rt keluarga laskar fpi pengawalhabib rizieq yang tewas ditembak polisi di km melakukan sumpah mubahalahpihak keluarga sud</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'relawan', 'bidang', 'kemanusiaan', 'secara', 'rutin', 'turun', 'ke', 'lapangan', 'untuk', 'mendata', 'dan', 'memverifikasi', 'masyarakat']</t>
+          <t>['rt', 'keluarga', 'laskar', 'fpi', 'pengawalhabib', 'rizieq', 'yang', 'tewas', 'ditembak', 'polisi', 'di', 'km', 'melakukan', 'sumpah', 'mubahalahpihak', 'keluarga', 'sud']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'keluarga', 'laskar', 'front, pembela, islam', 'pengawalhabib', 'rizieq', 'yang', 'tewas', 'ditembak', 'polisi', 'di', 'km', 'melakukan', 'sumpah', 'mubahalahpihak', 'keluarga', 'sudah']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['relawan', 'bidang', 'kemanusiaan', 'rutin', 'turun', 'lapangan', 'mendata', 'memverifikasi', 'masyarakat']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['rawan', 'bidang', 'manusia', 'rutin', 'turun', 'lapang', 'data', 'verifikasi', 'masyarakat']</t>
+          <t>['keluarga', 'laskar', 'front, pembela, islam', 'pengawalhabib', 'rizieq', 'tewas', 'ditembak', 'polisi', 'km', 'sumpah', 'mubahalahpihak', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['keluarga', 'laskar', 'front bela islam', 'pengawalhabib', 'rizieq', 'tewas', 'tembak', 'polisi', 'km', 'sumpah', 'mubahalahpihak', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -3671,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16335</v>
+        <v>27102</v>
       </c>
       <c r="C91" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt gubernur anies kalau berada di wilayah publik maka kupingnya nggak boleh tipis kita dengarkan saja baik kritikan akademik </t>
+          <t>komisi independen yang dibentuk oleh gereja katolik prancis untuk menyelidiki pelecehan seksual oleh para pastor me</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rt', 'gubernur', 'anies', 'kalau', 'berada', 'di', 'wilayah', 'publik', 'maka', 'kupingnya', 'nggak', 'boleh', 'tipis', 'kita', 'dengarkan', 'saja', 'baik', 'kritikan', 'akademik']</t>
+          <t>['komisi', 'independen', 'yang', 'dibentuk', 'oleh', 'gereja', 'katolik', 'prancis', 'untuk', 'menyelidiki', 'pelecehan', 'seksual', 'oleh', 'para', 'pastor', 'me']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['komisi', 'bebas', 'yang', 'dibentuk', 'oleh', 'gereja', 'katolik', 'prancis', 'untuk', 'menyelidiki', 'pelecehan', 'seksual', 'oleh', 'para', 'pastor', 'me']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['gubernur', 'anies', 'wilayah', 'publik', 'kupingnya', 'nggak', 'tipis', 'dengarkan', 'kritikan', 'akademik']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['gubernur', 'anies', 'wilayah', 'publik', 'kuping', 'nggak', 'tipis', 'dengar', 'kritik', 'akademik']</t>
+          <t>['komisi', 'bebas', 'dibentuk', 'gereja', 'katolik', 'prancis', 'menyelidiki', 'pelecehan', 'seksual', 'pastor', 'me']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['komisi', 'bebas', 'bentuk', 'gereja', 'katolik', 'prancis', 'selidik', 'leceh', 'seksual', 'pastor', 'me']</t>
         </is>
       </c>
     </row>
@@ -3707,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16336</v>
+        <v>27103</v>
       </c>
       <c r="C92" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">amnesty international meminta jokowi membebaskan seluruh korban kriminalisasi uu ite banyak di antaranya dituduh </t>
+          <t>pakar hukum polisi tidak agresif dan cenderung melambat menindaklanjuti rekomendasi dari komnas ham terkait penemb</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['amnesty', 'international', 'meminta', 'jokowi', 'membebaskan', 'seluruh', 'korban', 'kriminalisasi', 'uu', 'ite', 'banyak', 'di', 'antaranya', 'dituduh']</t>
+          <t>['pakar', 'hukum', 'polisi', 'tidak', 'agresif', 'dan', 'cenderung', 'melambat', 'menindaklanjuti', 'rekomendasi', 'dari', 'komnas', 'ham', 'terkait', 'penemb']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['pakar', 'hukum', 'polisi', 'tidak', 'agresif', 'dan', 'cenderung', 'melambat', 'menindaklanjuti', 'rekomendasi', 'dari', 'komisi, nasional', 'ham', 'terkait', 'penemb']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['amnesty', 'international', 'jokowi', 'membebaskan', 'korban', 'kriminalisasi', 'uu', 'ite', 'dituduh']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['amnesty', 'international', 'jokowi', 'bebas', 'korban', 'kriminalisasi', 'uu', 'ite', 'tuduh']</t>
+          <t>['pakar', 'hukum', 'polisi', 'agresif', 'cenderung', 'melambat', 'menindaklanjuti', 'rekomendasi', 'komisi, nasional', 'ham', 'terkait', 'penemb']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['pakar', 'hukum', 'polisi', 'agresif', 'cenderung', 'lambat', 'menindaklanjuti', 'rekomendasi', 'komisi nasional', 'ham', 'kait', 'penemb']</t>
         </is>
       </c>
     </row>
@@ -3743,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16337</v>
+        <v>27104</v>
       </c>
       <c r="C93" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>pemerintah pusat selalu bicara bhineka tunggal ika beragamragam tapi skb menteri ini justru menghilangkan ke</t>
+          <t>refly sampai sekarang rasanya masih banyak yang kurang masuk akal biasanya orang dijadikan tersangka kalau menin</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['pemerintah', 'pusat', 'selalu', 'bicara', 'bhineka', 'tunggal', 'ika', 'beragamragam', 'tapi', 'skb', 'menteri', 'ini', 'justru', 'menghilangkan', 'ke']</t>
+          <t>['refly', 'sampai', 'sekarang', 'rasanya', 'masih', 'banyak', 'yang', 'kurang', 'masuk', 'akal', 'biasanya', 'orang', 'dijadikan', 'tersangka', 'kalau', 'menin']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['refly', 'sampai', 'sekarang', 'rasanya', 'masih', 'banyak', 'yang', 'kurang', 'masuk', 'akal', 'biasanya', 'orang', 'dijadikan', 'tersangka', 'kalau', 'menin']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['pemerintah', 'pusat', 'bicara', 'bhineka', 'tunggal', 'ika', 'beragamragam', 'skb', 'menteri', 'menghilangkan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['perintah', 'pusat', 'bicara', 'bhineka', 'tunggal', 'ika', 'beragamragam', 'skb', 'menteri', 'hilang']</t>
+          <t>['refly', 'masuk', 'akal', 'orang', 'dijadikan', 'tersangka', 'menin']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['refly', 'masuk', 'akal', 'orang', 'jadi', 'sangka', 'tin']</t>
         </is>
       </c>
     </row>
@@ -3779,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16338</v>
+        <v>27105</v>
       </c>
       <c r="C94" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt orang diantaranya ditetapkan sebagai tersangka dengan berbagai tuduhan kejahatan dalam operasi tersebut</t>
+          <t>kuasa hukum penetapan status tersangka il laskar fpi bertentangan dengan kuhp selain itu aparat penegak hukum</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'orang', 'diantaranya', 'ditetapkan', 'sebagai', 'tersangka', 'dengan', 'berbagai', 'tuduhan', 'kejahatan', 'dalam', 'operasi', 'tersebut']</t>
+          <t>['kuasa', 'hukum', 'penetapan', 'status', 'tersangka', 'il', 'laskar', 'fpi', 'bertentangan', 'dengan', 'kuhp', 'selain', 'itu', 'aparat', 'penegak', 'hukum']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kuasa', 'hukum', 'penetapan', 'status', 'tersangka', 'il', 'laskar', 'front, pembela, islam', 'bertentangan', 'dengan', 'kuhp', 'selain', 'itu', 'aparat', 'penegak', 'hukum']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['orang', 'ditetapkan', 'tersangka', 'tuduhan', 'kejahatan', 'operasi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['orang', 'tetap', 'sangka', 'tuduh', 'jahat', 'operasi']</t>
+          <t>['kuasa', 'hukum', 'penetapan', 'status', 'tersangka', 'il', 'laskar', 'front, pembela, islam', 'bertentangan', 'kuhp', 'aparat', 'penegak', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['kuasa', 'hukum', 'tetap', 'status', 'sangka', 'il', 'laskar', 'front bela islam', 'tentang', 'kuhp', 'aparat', 'tegak', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -3815,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16339</v>
+        <v>27106</v>
       </c>
       <c r="C95" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt achmadi pagi prop yg namanya buzzerp mreka yg diphoto ini prop siapa yg ngumpulin mrk klo kami ini rakyat</t>
+          <t>rt deng jia xi seorang mahasiswa berumur tahun tertembak mati aparat keamanan myanmar saat ditemukan dia memakai kaos ev</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'achmadi', 'pagi', 'prop', 'yg', 'namanya', 'buzzerp', 'mreka', 'yg', 'diphoto', 'ini', 'prop', 'siapa', 'yg', 'ngumpulin', 'mrk', 'klo', 'kami', 'ini', 'rakyat']</t>
+          <t>['rt', 'deng', 'jia', 'xi', 'seorang', 'mahasiswa', 'berumur', 'tahun', 'tertembak', 'mati', 'aparat', 'keamanan', 'myanmar', 'saat', 'ditemukan', 'dia', 'memakai', 'kaos', 'ev']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'deng', 'jia', 'xi', 'seorang', 'mahasiswa', 'berumur', 'tahun', 'tertembak', 'mati', 'aparat', 'keamanan', 'myanmar', 'saat', 'ditemukan', 'dia', 'memakai', 'kaos', 'ev']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['achmadi', 'pagi', 'prop', 'namanya', 'buzzerp', 'mreka', 'diphoto', 'prop', 'ngumpulin', 'mrk', 'rakyat']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['achmadi', 'pagi', 'prop', 'nama', 'buzzerp', 'mreka', 'diphoto', 'prop', 'ngumpulin', 'mrk', 'rakyat']</t>
+          <t>['deng', 'jia', 'xi', 'mahasiswa', 'berumur', 'tertembak', 'mati', 'aparat', 'keamanan', 'myanmar', 'ditemukan', 'memakai', 'kaos', 'ev']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['deng', 'jia', 'xi', 'mahasiswa', 'umur', 'tembak', 'mati', 'aparat', 'aman', 'myanmar', 'temu', 'pakai', 'kaos', 'ev']</t>
         </is>
       </c>
     </row>
@@ -3851,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16340</v>
+        <v>27107</v>
       </c>
       <c r="C96" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt kepala daerah banyumas ciamis dan pariaman tegas menolak penerapan skb menteri</t>
+          <t>rt  series of deepfake videos of tom cruise is confusing millions of tiktok users see the convincing videos and learn how this tec</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'kepala', 'daerah', 'banyumas', 'ciamis', 'dan', 'pariaman', 'tegas', 'menolak', 'penerapan', 'skb', 'menteri']</t>
+          <t>['rt', 'series', 'of', 'deepfake', 'videos', 'of', 'tom', 'cruise', 'is', 'confusing', 'millions', 'of', 'tiktok', 'users', 'see', 'the', 'convincing', 'videos', 'and', 'learn', 'how', 'this', 'tec']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'series', 'of', 'deepfake', 'videos', 'of', 'tom', 'cruise', 'is', 'confusing', 'millions', 'of', 'tiktok', 'users', 'see', 'the', 'convincing', 'videos', 'and', 'learn', 'how', 'this', 'tec']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['kepala', 'daerah', 'banyumas', 'ciamis', 'pariaman', 'menolak', 'penerapan', 'skb', 'menteri']</t>
+          <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['kepala', 'daerah', 'banyumas', 'ciamis', 'pariaman', 'tolak', 'terap', 'skb', 'menteri']</t>
+          <t>['series', 'of', 'deepfake', 'videos', 'of', 'tom', 'cruise', 'is', 'confusing', 'millions', 'of', 'tiktok', 'users', 'see', 'the', 'convincing', 'videos', 'and', 'learn', 'how', 'this', 'tec']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['series', 'of', 'deepfake', 'videos', 'of', 'tom', 'cruise', 'is', 'confusing', 'millions', 'of', 'tiktok', 'users', 'see', 'the', 'convincing', 'videos', 'and', 'learn', 'how', 'this', 'tec']</t>
         </is>
       </c>
     </row>
@@ -3887,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16341</v>
+        <v>27108</v>
       </c>
       <c r="C97" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt putra hasyim muzadi desak skb tiga menteri dicabut</t>
+          <t>rt gile bener ini deepfake makin sulit dikenali kalau itu fake</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'putra', 'hasyim', 'muzadi', 'desak', 'skb', 'tiga', 'menteri', 'dicabut']</t>
+          <t>['rt', 'gile', 'bener', 'ini', 'deepfake', 'makin', 'sulit', 'dikenali', 'kalau', 'itu', 'fake']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'gila', 'benar', 'ini', 'deepfake', 'makin', 'sulit', 'dikenali', 'kalau', 'itu', 'fake']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['putra', 'hasyim', 'muzadi', 'desak', 'skb', 'menteri', 'dicabut']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['putra', 'hasyim', 'muzadi', 'desak', 'skb', 'menteri', 'cabut']</t>
+          <t>['gila', 'deepfake', 'sulit', 'dikenali', 'fake']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['gila', 'deepfake', 'sulit', 'nali', 'fake']</t>
         </is>
       </c>
     </row>
@@ -3923,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16342</v>
+        <v>27109</v>
       </c>
       <c r="C98" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kelompok teroris tpnpbopm yang dipimpin panglima kodap viii intan jaya sabinus waker dikabarkan menantang terangt</t>
+          <t>rt juga punya banyak tahanan politik tapi bisanya desakin negara lain untuk bebaskan tahanan politik atau jangan sedan</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['kelompok', 'teroris', 'tpnpbopm', 'yang', 'dipimpin', 'panglima', 'kodap', 'viii', 'intan', 'jaya', 'sabinus', 'waker', 'dikabarkan', 'menantang', 'terangt']</t>
+          <t>['rt', 'juga', 'punya', 'banyak', 'tahanan', 'politik', 'tapi', 'bisanya', 'desakin', 'negara', 'lain', 'untuk', 'bebaskan', 'tahanan', 'politik', 'atau', 'jangan', 'sedan']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'juga', 'punya', 'banyak', 'tahanan', 'politik', 'tapi', 'bisanya', 'desakin', 'negara', 'lain', 'untuk', 'bebaskan', 'tahanan', 'politik', 'atau', 'jangan', 'sedan']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['kelompok', 'teroris', 'tpnpbopm', 'dipimpin', 'panglima', 'kodap', 'viii', 'intan', 'jaya', 'sabinus', 'waker', 'dikabarkan', 'menantang', 'terangt']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['kelompok', 'teroris', 'tpnpbopm', 'pimpin', 'panglima', 'kodap', 'viii', 'intan', 'jaya', 'sabinus', 'waker', 'kabar', 'tantang', 'terangt']</t>
+          <t>['tahanan', 'politik', 'bisanya', 'desakin', 'negara', 'bebaskan', 'tahanan', 'politik', 'sedan']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['tahan', 'politik', 'bisa', 'desakin', 'negara', 'bebas', 'tahan', 'politik', 'sedan']</t>
         </is>
       </c>
     </row>
@@ -3959,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16343</v>
+        <v>27110</v>
       </c>
       <c r="C99" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>gubernur anies kalau berada di wilayah publik maka kupingnya nggak boleh tipis kita dengarkan saja baik kritika</t>
+          <t>tiga personel kepolisian dari polda metro jaya menjadi terlapor dalam penyelidikan kasus unlawfull killing peristiw</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['gubernur', 'anies', 'kalau', 'berada', 'di', 'wilayah', 'publik', 'maka', 'kupingnya', 'nggak', 'boleh', 'tipis', 'kita', 'dengarkan', 'saja', 'baik', 'kritika']</t>
+          <t>['tiga', 'personel', 'kepolisian', 'dari', 'polda', 'metro', 'jaya', 'menjadi', 'terlapor', 'dalam', 'penyelidikan', 'kasus', 'unlawfull', 'killing', 'peristiw']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tiga', 'personel', 'kepolisian', 'dari', 'kepolisian, daerah', 'metro', 'jaya', 'menjadi', 'terlapor', 'dalam', 'penyelidikan', 'kasus', 'unlawfull', 'killing', 'peristiwa']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['gubernur', 'anies', 'wilayah', 'publik', 'kupingnya', 'nggak', 'tipis', 'dengarkan', 'kritika']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['gubernur', 'anies', 'wilayah', 'publik', 'kuping', 'nggak', 'tipis', 'dengar', 'kritika']</t>
+          <t>['personel', 'kepolisian', 'kepolisian, daerah', 'metro', 'jaya', 'terlapor', 'penyelidikan', 'unlawfull', 'killing', 'peristiwa']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['personel', 'polisi', 'polisi daerah', 'metro', 'jaya', 'lapor', 'lidi', 'unlawfull', 'killing', 'peristiwa']</t>
         </is>
       </c>
     </row>
@@ -3995,34 +4494,80 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16344</v>
+        <v>27111</v>
       </c>
       <c r="C100" t="n">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">wali kota pariaman genius umar menolak surat keputusan bersama skb tiga menteri mengenai atribut dan seragam di </t>
+          <t>keluarga laskar fpi pengawalhabib rizieq yang tewas ditembak polisi di km melakukan sumpah mubahalahpihak</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['wali', 'kota', 'pariaman', 'genius', 'umar', 'menolak', 'surat', 'keputusan', 'bersama', 'skb', 'tiga', 'menteri', 'mengenai', 'atribut', 'dan', 'seragam', 'di']</t>
+          <t>['keluarga', 'laskar', 'fpi', 'pengawalhabib', 'rizieq', 'yang', 'tewas', 'ditembak', 'polisi', 'di', 'km', 'melakukan', 'sumpah', 'mubahalahpihak']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['keluarga', 'laskar', 'front, pembela, islam', 'pengawalhabib', 'rizieq', 'yang', 'tewas', 'ditembak', 'polisi', 'di', 'km', 'melakukan', 'sumpah', 'mubahalahpihak']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['wali', 'kota', 'pariaman', 'genius', 'umar', 'menolak', 'surat', 'keputusan', 'skb', 'menteri', 'atribut', 'seragam']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['wali', 'kota', 'pariaman', 'genius', 'umar', 'tolak', 'surat', 'putus', 'skb', 'menteri', 'atribut', 'seragam']</t>
+          <t>['keluarga', 'laskar', 'front, pembela, islam', 'pengawalhabib', 'rizieq', 'tewas', 'ditembak', 'polisi', 'km', 'sumpah', 'mubahalahpihak']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['keluarga', 'laskar', 'front bela islam', 'pengawalhabib', 'rizieq', 'tewas', 'tembak', 'polisi', 'km', 'sumpah', 'mubahalahpihak']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>27112</v>
+      </c>
+      <c r="C101" t="n">
+        <v>320</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>pakar politik jokowi pada akhirnya seperti blunder karena membatalkan kebijakan yang telah diteken sendiri reput</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['pakar', 'politik', 'jokowi', 'pada', 'akhirnya', 'seperti', 'blunder', 'karena', 'membatalkan', 'kebijakan', 'yang', 'telah', 'diteken', 'sendiri', 'reput']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['pakar', 'politik', 'jokowi', 'pada', 'akhirnya', 'seperti', 'blunder', 'karena', 'membatalkan', 'kebijakan', 'yang', 'telah', 'diteken', 'sendiri', 'reput']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['pakar', 'politik', 'jokowi', 'blunder', 'membatalkan', 'kebijakan', 'diteken', 'reput']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['pakar', 'politik', 'jokowi', 'blunder', 'batal', 'bijak', 'teken', 'reput']</t>
         </is>
       </c>
     </row>
